--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.548</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.792</v>
+        <v>28.284</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.495</v>
+        <v>-0.113</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.979</v>
+        <v>28.174</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.598</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.379</v>
+        <v>27.869</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.02366962999309</v>
+        <v>27.09102273892545</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20.20442232751368</v>
+        <v>27.09102276788019</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.38140310527997</v>
+        <v>27.09102277796573</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5.633834778673796</v>
+        <v>27.09102273999956</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.25496349407746</v>
+        <v>27.09102277415799</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.19149602565454</v>
+        <v>27.09102278516443</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.52747669407775</v>
+        <v>27.09102274354031</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>34.01174593478198</v>
+        <v>27.09102277992263</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>39.3294045968075</v>
+        <v>27.09102278954522</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.88447441038209</v>
+        <v>27.0910227919529</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>33.12915778076427</v>
+        <v>27.09102280463957</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37.16931327872145</v>
+        <v>27.09102280952105</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.58215077702919</v>
+        <v>27.09102276435943</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>24.88488927722888</v>
+        <v>27.09102279823176</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35.86116108345861</v>
+        <v>27.09102280794146</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>18.48614549643087</v>
+        <v>27.09102279115686</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>31.74392323511308</v>
+        <v>27.09102282543979</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>39.16280107492091</v>
+        <v>27.09102283751009</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.689972597881948</v>
+        <v>27.09102278984653</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>24.59599089386014</v>
+        <v>27.09102282748189</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.78963411477779</v>
+        <v>27.09102284181266</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6.931655560296544</v>
+        <v>27.09102279789652</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>34.91887597016673</v>
+        <v>27.09102283942173</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>14.50764280215091</v>
+        <v>27.09102274967053</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.58369847128991</v>
+        <v>27.09102278040003</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30.21817146266449</v>
+        <v>27.09102279038273</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8.362266282878998</v>
+        <v>27.09102275254459</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>30.19122212126244</v>
+        <v>27.09102278893834</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>35.00776766900138</v>
+        <v>27.09102280007706</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>12.04789205633546</v>
+        <v>27.09102275690588</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>41.42695431040438</v>
+        <v>27.09102279543163</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>46.27655297697311</v>
+        <v>27.09102280505234</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>40.13012422555892</v>
+        <v>27.0910228075214</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>44.19294793156241</v>
+        <v>27.09102282029716</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>48.42794899532323</v>
+        <v>27.09102282518243</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>21.00512159388938</v>
+        <v>27.09102277764946</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36.26643071980779</v>
+        <v>27.09102281373129</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46.24963697988336</v>
+        <v>27.09102282318714</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>20.56527896548257</v>
+        <v>27.09102280589553</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>37.59683953858166</v>
+        <v>27.09102284223801</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>44.83450465791725</v>
+        <v>27.09102285429749</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>13.34261535314785</v>
+        <v>27.09102280671758</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35.5628041145082</v>
+        <v>27.09102284692908</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>43.12257604243813</v>
+        <v>27.09102286150798</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>46.81574886603214</v>
+        <v>27.09102285992619</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>16.99996794707312</v>
+        <v>27.09102275162353</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>26.68017639009227</v>
+        <v>27.09102278232864</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>33.39042073049426</v>
+        <v>27.09102279220782</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>12.17750713092434</v>
+        <v>27.09102275505469</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>34.67576994629601</v>
+        <v>27.09102279143053</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>39.6435234133958</v>
+        <v>27.09102280248604</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>16.13117054380336</v>
+        <v>27.09102275941498</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>46.07499242244443</v>
+        <v>27.09102279787897</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>51.08498127209887</v>
+        <v>27.09102280741622</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>44.9395019500618</v>
+        <v>27.09102280977811</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>48.95919299836071</v>
+        <v>27.09102282241023</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>53.44165307541795</v>
+        <v>27.09102282726636</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>24.43729424859852</v>
+        <v>27.09102277973561</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>40.65911510234299</v>
+        <v>27.09102281589927</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>50.65337648382502</v>
+        <v>27.09102282525298</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>23.5264202464558</v>
+        <v>27.09102280786849</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>41.26526392843098</v>
+        <v>27.09102284414495</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>48.64929989174173</v>
+        <v>27.09102285613372</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>17.64556391031187</v>
+        <v>27.09102280930086</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>40.69090706251602</v>
+        <v>27.09102284947495</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>48.52280706051165</v>
+        <v>27.09102286402135</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>18.3910618598241</v>
+        <v>27.09102281845153</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>52.23552375192448</v>
+        <v>27.09102286239499</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-10.22425216608462</v>
+        <v>27.0910227445491</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-2.049514164314338</v>
+        <v>27.09102277416585</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4.898912241588556</v>
+        <v>27.09102278420046</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-18.55266145359145</v>
+        <v>27.09102274747291</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2.099367618757492</v>
+        <v>27.09102278247762</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>7.042785395630792</v>
+        <v>27.09102279355478</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-16.3868769324704</v>
+        <v>27.09102275119224</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>12.03739402279068</v>
+        <v>27.09102278832806</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>17.18005398460334</v>
+        <v>27.09102279794477</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>11.54673382845517</v>
+        <v>27.09102279999675</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>15.88482910032795</v>
+        <v>27.09102281252295</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>20.03703806215618</v>
+        <v>27.09102281744172</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-5.608648735652659</v>
+        <v>27.09102277124238</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>8.139436738307547</v>
+        <v>27.09102280621041</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>18.59836768435158</v>
+        <v>27.09102281581607</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-6.830371532303833</v>
+        <v>27.09102279825337</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>9.130303462502214</v>
+        <v>27.09102283326124</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>16.56331907294814</v>
+        <v>27.09102284537494</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-16.82070888878046</v>
+        <v>27.09102279899692</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3.811543202776539</v>
+        <v>27.09102283760077</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>11.40114448023399</v>
+        <v>27.09102285217731</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-18.30831011814475</v>
+        <v>27.09102280724457</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>13.46713758487216</v>
+        <v>27.09102284962694</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>46.52728873456908</v>
+        <v>27.09102285159612</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>32.85113399101616</v>
+        <v>27.09102284789861</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>45.07496319698298</v>
+        <v>27.09102286381925</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>52.44914175202138</v>
+        <v>27.09102287042482</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>13.09955327017151</v>
+        <v>27.09102281361222</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>36.13901488530249</v>
+        <v>27.09102285576378</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>45.24042195935409</v>
+        <v>27.09102286673186</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>17.78380718608303</v>
+        <v>27.0910228294549</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>30.65186454457939</v>
+        <v>27.09102286497691</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>40.43236342484826</v>
+        <v>27.09102287722286</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>7.034306196444465</v>
+        <v>27.09102282772811</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>27.2137703585</v>
+        <v>27.09102286701438</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>34.83043543739156</v>
+        <v>27.09102288108324</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>9.137574040269177</v>
+        <v>27.091022838166</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>40.02071728470926</v>
+        <v>27.09102288112171</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>54.3698836948415</v>
+        <v>27.09102289328736</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>47.36238972349194</v>
+        <v>27.09102288755194</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>57.08548768733042</v>
+        <v>27.09102290336751</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>67.55408635226827</v>
+        <v>27.09102290852599</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>13.96353108117401</v>
+        <v>27.09102285110299</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>45.55914171245711</v>
+        <v>27.09102289349744</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>55.74250563853587</v>
+        <v>27.09102290482496</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>58.60918524698978</v>
+        <v>27.09102287221047</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>47.53858957027433</v>
+        <v>27.09102286781488</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>59.30291107148095</v>
+        <v>27.09102288383985</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>67.15323598932102</v>
+        <v>27.09102289043215</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>22.61935472655041</v>
+        <v>27.09102283125044</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>51.98503167341212</v>
+        <v>27.09102287598761</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>60.5413039332733</v>
+        <v>27.09102288671665</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>23.61827330408681</v>
+        <v>27.09102284656394</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.59391314503918</v>
+        <v>27.09102288419439</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>49.81176104484997</v>
+        <v>27.09102289636715</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>16.29562929579749</v>
+        <v>27.0910228467731</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>42.20645425690306</v>
+        <v>27.09102288875343</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>49.83637200398327</v>
+        <v>27.09102290297404</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>19.86732856516627</v>
+        <v>27.09102285841146</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>56.32375886045473</v>
+        <v>27.09102290396678</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>70.24524252181092</v>
+        <v>27.09102291610238</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>66.6362064345027</v>
+        <v>27.09102290964859</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>75.83339211369297</v>
+        <v>27.09102292551558</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>86.50325720390178</v>
+        <v>27.09102293064501</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>27.73799062540611</v>
+        <v>27.09102287089586</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>65.78452215740342</v>
+        <v>27.09102291580592</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>75.27158358188271</v>
+        <v>27.09102292679069</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>64.29111119472427</v>
+        <v>27.09102287463068</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>52.68158537411069</v>
+        <v>27.09102287002375</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>64.2470234295114</v>
+        <v>27.09102288584951</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>72.49145599354469</v>
+        <v>27.09102289241087</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>26.70208362006172</v>
+        <v>27.09102283342948</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>57.1681925873298</v>
+        <v>27.0910228781859</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>27.29877072090498</v>
+        <v>27.09102284868039</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>45.06588303877355</v>
+        <v>27.09102288627514</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>54.34336222330742</v>
+        <v>27.09102289834353</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>21.47115524620383</v>
+        <v>27.09102284946625</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>48.31654264938078</v>
+        <v>27.09102289144759</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>56.10378053016333</v>
+        <v>27.09102290558868</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>25.42467101200863</v>
+        <v>27.09102286108066</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>62.71292144012401</v>
+        <v>27.09102290657241</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>76.74455431636936</v>
+        <v>27.0910229186125</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>72.75593718619054</v>
+        <v>27.09102291198935</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>81.83520808595365</v>
+        <v>27.09102292764819</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>92.74211436718235</v>
+        <v>27.09102293275092</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>32.6938991989863</v>
+        <v>27.09102287315127</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>71.89396919772339</v>
+        <v>27.09102291811129</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>81.45751042789266</v>
+        <v>27.09102292896592</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>25.44694672973595</v>
+        <v>27.09102286190885</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>15.53011438331997</v>
+        <v>27.09102285730029</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>27.84789480245725</v>
+        <v>27.09102287293791</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>35.58283360691869</v>
+        <v>27.09102287961393</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>-7.302517246515075</v>
+        <v>27.09102282212205</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>20.32865022932914</v>
+        <v>27.09102286545103</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.15674259180174</v>
+        <v>27.09102287636574</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>-5.221801018972346</v>
+        <v>27.09102283814476</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>10.54931879143825</v>
+        <v>27.09102287451064</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>20.15591100674149</v>
+        <v>27.09102288673462</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-15.12742416579789</v>
+        <v>27.09102283843545</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>9.111478076867202</v>
+        <v>27.09102287885161</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>16.88684031067576</v>
+        <v>27.09102289305825</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>-13.52276557430441</v>
+        <v>27.09102284912149</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>21.48788837412612</v>
+        <v>27.09102289305952</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>35.85745013902209</v>
+        <v>27.09102290521347</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>33.18522673874448</v>
+        <v>27.09102289862584</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>42.83755890500484</v>
+        <v>27.09102291413108</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>53.54662478617566</v>
+        <v>27.09102291935717</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>-3.68462261784746</v>
+        <v>27.09102286107382</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>32.66592896018066</v>
+        <v>27.09102290472254</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>42.50482550905113</v>
+        <v>27.09102291590028</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>22.75534358771214</v>
+        <v>27.09102275344643</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>36.6975461048433</v>
+        <v>27.09102278128439</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>42.94252126962475</v>
+        <v>27.09102279043687</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>14.11996119569972</v>
+        <v>27.09102275386063</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>38.97930814783542</v>
+        <v>27.09102278681134</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>42.77714632677678</v>
+        <v>27.0910227968206</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21.21750528485316</v>
+        <v>27.09102275825584</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>54.65727979901882</v>
+        <v>27.09102279310138</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>59.00234534198744</v>
+        <v>27.09102280181797</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>48.51825265714626</v>
+        <v>27.09102280292908</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>55.78013472946941</v>
+        <v>27.09102281473515</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>57.67502066117618</v>
+        <v>27.09102281892864</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>22.76645641160292</v>
+        <v>27.09102277562449</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>41.12275954248874</v>
+        <v>27.09102280805887</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>49.7425155770536</v>
+        <v>27.09102281692029</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>22.36717222633052</v>
+        <v>27.0910228000859</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>41.89302336675959</v>
+        <v>27.09102283292693</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>47.19053276633151</v>
+        <v>27.09102284366914</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>7.863455175538395</v>
+        <v>27.09102279802139</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>30.85160456996992</v>
+        <v>27.09102283442475</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>35.90524943329729</v>
+        <v>27.09102284724849</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>11.94064410333419</v>
+        <v>27.09102280684928</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>47.24358572721784</v>
+        <v>27.09102284656326</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>22.88426201903521</v>
+        <v>27.09102276332586</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>39.55589173623914</v>
+        <v>27.09102279281176</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>45.26955442671701</v>
+        <v>27.09102280187524</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>16.56268821924754</v>
+        <v>27.09102276537798</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>45.39439809495396</v>
+        <v>27.09102280046375</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>49.03933991625076</v>
+        <v>27.09102281055784</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>24.33578048160579</v>
+        <v>27.09102277047437</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>61.45359943551473</v>
+        <v>27.09102280730866</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>65.29955178110497</v>
+        <v>27.09102281601476</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>58.94092144374407</v>
+        <v>27.09102281716049</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>66.10912606663601</v>
+        <v>27.09102282903701</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>68.10921769892914</v>
+        <v>27.09102283325988</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.62403775866293</v>
+        <v>27.09102278773201</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>51.63309831165049</v>
+        <v>27.09102282221638</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>59.29711511703911</v>
+        <v>27.09102283085253</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>23.90499317335495</v>
+        <v>27.09102281359298</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>46.96744727623773</v>
+        <v>27.09102284834195</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>52.06301973274206</v>
+        <v>27.09102285907002</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>12.87502450287255</v>
+        <v>27.09102281345822</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>40.89854151891041</v>
+        <v>27.09102285231626</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>46.16826012314448</v>
+        <v>27.09102286531829</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>17.92926307010133</v>
+        <v>27.09102282326463</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>58.05818430015884</v>
+        <v>27.09102286530252</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>24.82456760676375</v>
+        <v>27.09102276493053</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>41.96465119617142</v>
+        <v>27.09102279438036</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>47.7548325763028</v>
+        <v>27.09102280335638</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>19.85295634197593</v>
+        <v>27.09102276751069</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>49.22790737705126</v>
+        <v>27.09102280257065</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>53.01639760731693</v>
+        <v>27.09102281258718</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>27.81116836241264</v>
+        <v>27.09102277256855</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>65.34733957609851</v>
+        <v>27.09102280932427</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>69.34273226240681</v>
+        <v>27.09102281795868</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>63.10519538408622</v>
+        <v>27.09102281903397</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>70.20737657926757</v>
+        <v>27.09102283076991</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>72.41964869566233</v>
+        <v>27.09102283498013</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>31.52160846978636</v>
+        <v>27.09102278946394</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>55.34053048501281</v>
+        <v>27.09102282400961</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>63.01069729318629</v>
+        <v>27.09102283255337</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>26.31632434271944</v>
+        <v>27.09102281526163</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>49.96223965438197</v>
+        <v>27.09102284994064</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>55.20430533000783</v>
+        <v>27.09102286060552</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>16.65968934242766</v>
+        <v>27.09102281570811</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>45.41500653553641</v>
+        <v>27.09102285452814</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>50.92489445850198</v>
+        <v>27.09102286749203</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>22.01246924907382</v>
+        <v>27.09102282545527</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>62.73073472221413</v>
+        <v>27.09102286739276</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.1422403926241163</v>
+        <v>27.09102275821996</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>16.07891321530026</v>
+        <v>27.09102278665676</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>22.08022435729561</v>
+        <v>27.09102279577297</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-8.281924567183113</v>
+        <v>27.09102276036273</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>19.55989805728554</v>
+        <v>27.09102279411792</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>23.31914388490124</v>
+        <v>27.09102280416156</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-1.835763607591819</v>
+        <v>27.09102276482732</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>34.51641750789779</v>
+        <v>27.09102280033845</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>38.63796282306281</v>
+        <v>27.09102280905083</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>32.70546622369203</v>
+        <v>27.09102280988711</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>40.15089062676672</v>
+        <v>27.09102282152171</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>42.04907581971123</v>
+        <v>27.09102282577856</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>4.047752870318872</v>
+        <v>27.09102278151459</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>25.73520871213303</v>
+        <v>27.09102281495485</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>33.82458833087222</v>
+        <v>27.09102282370884</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-1.31661517955171</v>
+        <v>27.09102280624199</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>20.84556197165488</v>
+        <v>27.09102283975334</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>26.10048610560323</v>
+        <v>27.09102285052868</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-15.03437704257601</v>
+        <v>27.09102280611505</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>11.59824855226402</v>
+        <v>27.09102284345586</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>16.90475366572178</v>
+        <v>27.09102285644666</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-11.59252812405195</v>
+        <v>27.09102281503231</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>27.40748115468525</v>
+        <v>27.09102285552419</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>55.17585638624553</v>
+        <v>27.09102285739518</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>45.18615045306753</v>
+        <v>27.09102285341427</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>59.32018374557632</v>
+        <v>27.09102286799362</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>62.46027306395776</v>
+        <v>27.09102287361339</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>18.17495678011734</v>
+        <v>27.09102282020444</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>47.18061428008544</v>
+        <v>27.09102286026667</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>53.92623597009335</v>
+        <v>27.09102287032309</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>19.30012765259314</v>
+        <v>27.09102283572829</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>38.84561539874144</v>
+        <v>27.09102286970366</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>46.0820668372195</v>
+        <v>27.09102288061832</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>4.411859291025568</v>
+        <v>27.09102283339475</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>31.23658238023629</v>
+        <v>27.09102287133438</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>36.21146677248647</v>
+        <v>27.09102288387973</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>11.61891231259581</v>
+        <v>27.091022844473</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>49.89344812848827</v>
+        <v>27.09102288552377</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>60.19896527884023</v>
+        <v>27.09102289629667</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>55.73158958296261</v>
+        <v>27.09102289052823</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>67.1221161023536</v>
+        <v>27.09102290491711</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>74.42114025877689</v>
+        <v>27.09102290934077</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>17.43363475120936</v>
+        <v>27.09102285530526</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>55.15498224869742</v>
+        <v>27.0910228956664</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>61.63969889366565</v>
+        <v>27.09102290590297</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>66.05727335728307</v>
+        <v>27.09102287621533</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>58.69657856982982</v>
+        <v>27.09102287160945</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>72.46044127787256</v>
+        <v>27.09102288625919</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>75.88134675569376</v>
+        <v>27.09102289189339</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>26.80965226140909</v>
+        <v>27.09102283628573</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>61.77501596082068</v>
+        <v>27.09102287871946</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>67.90956542990614</v>
+        <v>27.0910228885573</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>24.00612505834053</v>
+        <v>27.09102285142962</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>47.42191700092744</v>
+        <v>27.09102288734853</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>54.05237491728286</v>
+        <v>27.09102289818551</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>12.5197945526675</v>
+        <v>27.09102285085558</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>44.83108591148148</v>
+        <v>27.09102289136038</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>49.63470402796117</v>
+        <v>27.09102290398302</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>21.03266263159101</v>
+        <v>27.09102286298006</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>64.58279478246622</v>
+        <v>27.0910229064287</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>74.32736522043777</v>
+        <v>27.0910229171504</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>73.23770982537273</v>
+        <v>27.09102291074066</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>84.18947608155851</v>
+        <v>27.09102292516933</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>91.56853311892444</v>
+        <v>27.09102292958086</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.80015526132911</v>
+        <v>27.09102287339919</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>73.63340853090173</v>
+        <v>27.09102291606813</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>79.35037946393338</v>
+        <v>27.09102292597456</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>70.98118936574139</v>
+        <v>27.09102287825924</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>63.21586213758629</v>
+        <v>27.09102287347952</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>76.78072820461398</v>
+        <v>27.09102288794269</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>80.54529918176357</v>
+        <v>27.09102289355791</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>30.32594201778312</v>
+        <v>27.09102283813727</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>66.27277901687467</v>
+        <v>27.09102288057697</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>72.50896888794402</v>
+        <v>27.09102289032713</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>27.05965363939588</v>
+        <v>27.09102285320311</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>51.14136807533712</v>
+        <v>27.09102288908</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>57.82673637248849</v>
+        <v>27.09102289982209</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>17.10246710109849</v>
+        <v>27.09102285318013</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>50.25017683478769</v>
+        <v>27.0910228936822</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>55.17171994488395</v>
+        <v>27.09102290622365</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>25.9130673498779</v>
+        <v>27.09102286524346</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>70.15301504741407</v>
+        <v>27.09102290861769</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>79.9965775767793</v>
+        <v>27.09102291925018</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>78.65924563306477</v>
+        <v>27.09102291270341</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>89.481908727494</v>
+        <v>27.09102292694328</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>97.07308442386429</v>
+        <v>27.09102293133658</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>34.11773495024318</v>
+        <v>27.0910228752934</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>78.98766092962052</v>
+        <v>27.09102291800593</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>84.77045082382622</v>
+        <v>27.0910229277847</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>35.56181258963947</v>
+        <v>27.09102286643481</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.25893376521539</v>
+        <v>27.09102286166758</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>43.54146806159996</v>
+        <v>27.09102287598376</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>46.83973282904062</v>
+        <v>27.09102288168075</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-0.817195136583913</v>
+        <v>27.09102282762342</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>32.60207835046244</v>
+        <v>27.09102286876738</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>38.99419748621887</v>
+        <v>27.09102287874996</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-2.501696231414662</v>
+        <v>27.09102284328223</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>19.8831923110321</v>
+        <v>27.09102287803832</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>26.8703523712181</v>
+        <v>27.09102288891632</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-16.53745064175922</v>
+        <v>27.09102284286438</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>14.2914537876674</v>
+        <v>27.09102288188999</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>19.25273447506216</v>
+        <v>27.09102289449803</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-9.739964136414235</v>
+        <v>27.0910228540745</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>32.56911577336582</v>
+        <v>27.09102289601983</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>42.73615357717209</v>
+        <v>27.09102290675496</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>42.4771400695729</v>
+        <v>27.09102290026535</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>53.86257035401127</v>
+        <v>27.09102291437222</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>61.2761253328751</v>
+        <v>27.09102291886243</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>0.8109046714379402</v>
+        <v>27.09102286401875</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>43.13057364423999</v>
+        <v>27.09102290555585</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>49.17917466111673</v>
+        <v>27.09102291561008</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>15.15277882351185</v>
+        <v>27.09102273573859</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>20.71278427794898</v>
+        <v>27.09102276466086</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>27.65339969029699</v>
+        <v>27.09102277478319</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>6.122400229301016</v>
+        <v>27.09102273653602</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>22.69003093733987</v>
+        <v>27.09102277058949</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>27.73054898659269</v>
+        <v>27.09102278167922</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>9.402994908049193</v>
+        <v>27.09102274009005</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>33.39372426290158</v>
+        <v>27.09102277640066</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>38.54403320679091</v>
+        <v>27.091022786102</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.88995323836776</v>
+        <v>27.09102278882701</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>33.64154755550557</v>
+        <v>27.09102280155578</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>37.56393377218606</v>
+        <v>27.09102280645877</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>15.93406157760412</v>
+        <v>27.09102276132135</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>25.97016556216401</v>
+        <v>27.09102279522212</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>37.0388408847606</v>
+        <v>27.09102280500866</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>16.29026756819149</v>
+        <v>27.0910227869446</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.14886915203364</v>
+        <v>27.09102282118379</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>36.03259751068578</v>
+        <v>27.09102283333261</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>4.33930298305158</v>
+        <v>27.09102278529566</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>19.3388599985846</v>
+        <v>27.09102282286246</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>27.08930439588633</v>
+        <v>27.09102283729261</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>4.038665409830426</v>
+        <v>27.09102279334646</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.84328515855894</v>
+        <v>27.09102283479146</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>15.43496907690524</v>
+        <v>27.09102274642082</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>23.83866970154179</v>
+        <v>27.09102277711319</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>30.28533247700214</v>
+        <v>27.091022787149</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>8.744318803576698</v>
+        <v>27.09102274903315</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.46324909845108</v>
+        <v>27.0910227853226</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>34.44553479265891</v>
+        <v>27.09102279656069</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>12.77451719882875</v>
+        <v>27.09102275340753</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>40.59982816621493</v>
+        <v>27.09102279186139</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>45.32319637194188</v>
+        <v>27.09102280157505</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>40.93416706663276</v>
+        <v>27.09102280435545</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>44.5172120923025</v>
+        <v>27.09102281717472</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>48.67495138030195</v>
+        <v>27.09102282208458</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>22.21675278800897</v>
+        <v>27.0910227745644</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>37.16656691216594</v>
+        <v>27.09102281068945</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>47.29036128902936</v>
+        <v>27.0910228202383</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>18.13601776015982</v>
+        <v>27.09102280168957</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>33.71675239490352</v>
+        <v>27.09102283798578</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>41.49526831727547</v>
+        <v>27.0910228501451</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>9.810917109129701</v>
+        <v>27.0910228021788</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>30.06758686557016</v>
+        <v>27.09102284232659</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>38.26772646707734</v>
+        <v>27.09102285702562</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>10.58949032309168</v>
+        <v>27.09102281135835</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>41.46391180187401</v>
+        <v>27.09102285531451</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>17.79891605419581</v>
+        <v>27.09102274837868</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.78414138804279</v>
+        <v>27.09102277904285</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>33.32179841693451</v>
+        <v>27.09102278897908</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>12.44996669935698</v>
+        <v>27.09102275154705</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>33.81880390096759</v>
+        <v>27.09102278781611</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>38.97474955345817</v>
+        <v>27.09102279897462</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>16.73470205943596</v>
+        <v>27.09102275591773</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>45.10778259701073</v>
+        <v>27.09102279430615</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>50.00861808000923</v>
+        <v>27.09102280394011</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>45.60292779470726</v>
+        <v>27.09102280660749</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>49.13862234127637</v>
+        <v>27.09102281928231</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>53.55589966369558</v>
+        <v>27.09102282416444</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>25.52016963376745</v>
+        <v>27.09102277664865</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>41.40576123633105</v>
+        <v>27.09102281285217</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>51.56024911237466</v>
+        <v>27.09102282230208</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>20.98591917829348</v>
+        <v>27.0910228036936</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>37.2601866623198</v>
+        <v>27.09102283991934</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>45.20717193011131</v>
+        <v>27.09102285201247</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>14.02339986632126</v>
+        <v>27.09102280479422</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>35.09740221405877</v>
+        <v>27.09102284490198</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>43.5989926069245</v>
+        <v>27.09102285957368</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>15.17613070391418</v>
+        <v>27.09102281394875</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>46.77112072512369</v>
+        <v>27.09102285780997</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-9.329052727958171</v>
+        <v>27.09102274129263</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>-1.825247046187068</v>
+        <v>27.09102277086747</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>4.917378461376515</v>
+        <v>27.09102278094872</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-18.25758373280242</v>
+        <v>27.09102274392955</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>1.277999608080213</v>
+        <v>27.091022778824</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>6.373316772213924</v>
+        <v>27.09102278999219</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-15.73715650986025</v>
+        <v>27.0910227476546</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>11.12301981366282</v>
+        <v>27.09102278470926</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>16.12509195043653</v>
+        <v>27.09102279441624</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>12.29240801047969</v>
+        <v>27.09102279676876</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>16.14066138218207</v>
+        <v>27.09102280933453</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>20.19567173338778</v>
+        <v>27.09102281427859</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-4.471372115864581</v>
+        <v>27.09102276811086</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>8.962749194452652</v>
+        <v>27.09102280310497</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>19.55578991989401</v>
+        <v>27.09102281279595</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-9.318093892604059</v>
+        <v>27.09102279403298</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>5.185593545906455</v>
+        <v>27.09102282898547</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>13.14327209257117</v>
+        <v>27.0910228411907</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-20.45731279631656</v>
+        <v>27.0910227944355</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-1.803113963511991</v>
+        <v>27.09102283296675</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>6.414385815384675</v>
+        <v>27.09102284765324</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-21.51275845702927</v>
+        <v>27.09102280268032</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>8.005194254570453</v>
+        <v>27.09102284497283</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>41.60624618055174</v>
+        <v>27.09102284707527</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.39039648285221</v>
+        <v>27.09102284368438</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>39.82477998334498</v>
+        <v>27.09102285961245</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>47.47487725345075</v>
+        <v>27.09102286622176</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>9.765374840002972</v>
+        <v>27.0910228095452</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>31.08572395654695</v>
+        <v>27.09102285165686</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>40.97275176641627</v>
+        <v>27.0910228627738</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>16.97054167896145</v>
+        <v>27.09102282642094</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.83855054867794</v>
+        <v>27.09102286196653</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>38.58831389045258</v>
+        <v>27.09102287424987</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>4.745582770927502</v>
+        <v>27.09102282439995</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>23.53223051984588</v>
+        <v>27.0910228636947</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>31.43251533490708</v>
+        <v>27.09102287780808</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>7.83124533896096</v>
+        <v>27.09102283493054</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>37.08875920950784</v>
+        <v>27.09102287789624</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>50.99353487569062</v>
+        <v>27.09102289009559</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>44.78529787084124</v>
+        <v>27.09102288469105</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>53.59294426015155</v>
+        <v>27.09102290046945</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>64.33286085185181</v>
+        <v>27.09102290562944</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>12.76499081382474</v>
+        <v>27.09102284833196</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>42.64494674759019</v>
+        <v>27.09102289074031</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>53.36586337099543</v>
+        <v>27.09102290211263</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>53.47415242435033</v>
+        <v>27.09102286772701</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>42.79684052861992</v>
+        <v>27.09102286362609</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>53.79667718282307</v>
+        <v>27.09102287965611</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>61.9482166588061</v>
+        <v>27.09102288626092</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>19.07140434112294</v>
+        <v>27.0910228271974</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>46.66026755722876</v>
+        <v>27.09102287190811</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>56.07371765228797</v>
+        <v>27.09102288280669</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>22.69355180741862</v>
+        <v>27.09102284359299</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>38.62475542683313</v>
+        <v>27.09102288124368</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>47.86650323808106</v>
+        <v>27.09102289347247</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>13.95487988882731</v>
+        <v>27.0910228435132</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>38.4350185365419</v>
+        <v>27.09102288550637</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>46.40022933136873</v>
+        <v>27.091022899788</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>18.48872620590621</v>
+        <v>27.09102285525422</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>53.2744589918331</v>
+        <v>27.09102290082146</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>66.79127036009956</v>
+        <v>27.09102291300501</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>63.94296223311404</v>
+        <v>27.09102290687747</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>72.24534800158705</v>
+        <v>27.09102292270546</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>83.21577835258375</v>
+        <v>27.09102292784148</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>26.48611199108649</v>
+        <v>27.09102286820821</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>62.74566764846153</v>
+        <v>27.09102291313726</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>72.83359294450595</v>
+        <v>27.09102292418038</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>59.0681796593655</v>
+        <v>27.09102287017856</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>47.83965460446451</v>
+        <v>27.09102286585866</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>58.63950204384621</v>
+        <v>27.09102288168901</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>67.19498305359744</v>
+        <v>27.09102288826563</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>23.05251498816002</v>
+        <v>27.09102282940181</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>51.72971536830868</v>
+        <v>27.09102287412964</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>61.29528699146532</v>
+        <v>27.09102288494151</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>26.28062992349919</v>
+        <v>27.09102284573147</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>42.98722986438674</v>
+        <v>27.09102288334307</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>52.31165928979718</v>
+        <v>27.09102289547112</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>19.05608928706494</v>
+        <v>27.09102284623225</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>44.46303303568106</v>
+        <v>27.0910228882246</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>52.60985856890672</v>
+        <v>27.09102290243058</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>23.95878209860694</v>
+        <v>27.09102285794771</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>59.56413614174777</v>
+        <v>27.09102290344886</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>73.21799569135449</v>
+        <v>27.0910229155404</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>69.98026309344436</v>
+        <v>27.09102290923753</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>78.16294026921504</v>
+        <v>27.09102292485856</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>89.38459615440736</v>
+        <v>27.09102292996947</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>31.3543230974443</v>
+        <v>27.09102287048309</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>68.7548468395005</v>
+        <v>27.09102291546302</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>78.94624587954567</v>
+        <v>27.09102292637773</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>20.18619922542955</v>
+        <v>27.09102285737923</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>10.70078042704059</v>
+        <v>27.09102285305848</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>22.23309857664183</v>
+        <v>27.0910228687006</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>30.26240207897316</v>
+        <v>27.09102287538923</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>-10.95057695736594</v>
+        <v>27.09102281803035</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>14.88924124957427</v>
+        <v>27.09102286131687</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>24.570753425172</v>
+        <v>27.09102287239248</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>-6.234254738307591</v>
+        <v>27.0910228351166</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>8.485259731129579</v>
+        <v>27.09102287149823</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>18.10292907355347</v>
+        <v>27.09102288376804</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-17.61512020457981</v>
+        <v>27.09102283511888</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>5.177797136614911</v>
+        <v>27.09102287554309</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>13.28454357320577</v>
+        <v>27.09102288979995</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-15.03463292085972</v>
+        <v>27.09102284589613</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>18.28800270231639</v>
+        <v>27.09102288983967</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>32.23995328157206</v>
+        <v>27.09102290203598</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>30.36051544531101</v>
+        <v>27.09102289576843</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>39.09555602966686</v>
+        <v>27.09102291123565</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>50.10064971775565</v>
+        <v>27.09102291646774</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>-5.073028902355258</v>
+        <v>27.09102285830286</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.47753561945387</v>
+        <v>27.09102290197057</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>39.91806837528767</v>
+        <v>27.09102291319742</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>11.30496030187851</v>
+        <v>27.09102274340532</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>16.97424236809017</v>
+        <v>27.09102276964231</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>22.90568636159653</v>
+        <v>27.09102277874361</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>2.319614777561204</v>
+        <v>27.09102274383028</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>17.71653000842102</v>
+        <v>27.09102277471059</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>21.98796064876729</v>
+        <v>27.0910227847028</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>5.548024786403989</v>
+        <v>27.0910227470934</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>27.84357772798736</v>
+        <v>27.09102277999102</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>32.15465123141346</v>
+        <v>27.09102278873852</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>24.70156394228338</v>
+        <v>27.09102279122877</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>28.50769535331722</v>
+        <v>27.09102280276683</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>31.72840314539505</v>
+        <v>27.09102280714275</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>10.73993224060556</v>
+        <v>27.09102276612886</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>20.362204340733</v>
+        <v>27.09102279686523</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.62056427209592</v>
+        <v>27.09102280566069</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>15.56874609366859</v>
+        <v>27.09102279051081</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.19501858585502</v>
+        <v>27.09102282162806</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>34.10670517009168</v>
+        <v>27.09102283253922</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>3.574547468007869</v>
+        <v>27.0910227887874</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>17.83523462808834</v>
+        <v>27.09102282297406</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>24.80057632612522</v>
+        <v>27.09102283596154</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>4.227686535183748</v>
+        <v>27.09102279625035</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>28.73950165722872</v>
+        <v>27.09102283389188</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>11.30515814843526</v>
+        <v>27.09102275295811</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>19.5381105786933</v>
+        <v>27.09102278079101</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.0279332267091</v>
+        <v>27.0910227898185</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>4.488402332643558</v>
+        <v>27.09102275502193</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>23.626894209842</v>
+        <v>27.09102278792857</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>27.85479289739119</v>
+        <v>27.09102279805358</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>8.364314790134747</v>
+        <v>27.09102275901138</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>34.12243351828518</v>
+        <v>27.09102279384257</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>38.04277212143607</v>
+        <v>27.09102280260258</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>34.46427935566607</v>
+        <v>27.09102280514463</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>38.12147177776053</v>
+        <v>27.09102281676343</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>41.56810700009756</v>
+        <v>27.09102282115279</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>16.19871069564765</v>
+        <v>27.09102277798036</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>30.25916082410246</v>
+        <v>27.09102281072354</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>38.66313573527793</v>
+        <v>27.09102281930792</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>17.07807385694115</v>
+        <v>27.09102280377331</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>32.07379638533651</v>
+        <v>27.09102283674903</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>38.9026574845271</v>
+        <v>27.09102284767422</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>8.413050857798353</v>
+        <v>27.09102280398484</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>27.4381775434169</v>
+        <v>27.09102284051552</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>34.81232062131232</v>
+        <v>27.09102285374427</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>10.02149001045577</v>
+        <v>27.09102281245456</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>39.12925863804392</v>
+        <v>27.09102285236633</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>13.3507789370426</v>
+        <v>27.09102275470939</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.09069135415848</v>
+        <v>27.09102278251347</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.67035246436899</v>
+        <v>27.09102279145386</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>7.774028359126291</v>
+        <v>27.09102275727781</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>27.48400039077342</v>
+        <v>27.09102279016373</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>31.87778425980595</v>
+        <v>27.0910228002182</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>11.86918417000794</v>
+        <v>27.09102276125804</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>38.10235969271651</v>
+        <v>27.0910227960256</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>42.19110283564715</v>
+        <v>27.0910228047157</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>38.60965214134333</v>
+        <v>27.09102280715769</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>42.21652239039631</v>
+        <v>27.09102281864477</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>45.90578948404866</v>
+        <v>27.09102282301311</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>19.11551864012534</v>
+        <v>27.09102277984757</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>34.00746780974114</v>
+        <v>27.09102281265737</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>42.44858002474665</v>
+        <v>27.09102282115371</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>19.55745136280527</v>
+        <v>27.0910228055655</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>35.16502439000691</v>
+        <v>27.09102283847469</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>42.15717836465642</v>
+        <v>27.09102284934266</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>12.1560488175403</v>
+        <v>27.09102280633307</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>31.91281678350702</v>
+        <v>27.09102284282579</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>39.56726716587072</v>
+        <v>27.09102285603086</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>14.08897330638818</v>
+        <v>27.09102281477323</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>43.82964552694893</v>
+        <v>27.09102285459491</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-11.11281586557775</v>
+        <v>27.09102274834103</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>-3.684890063830639</v>
+        <v>27.09102277516195</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>2.066500991313703</v>
+        <v>27.09102278423165</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-19.98810868354565</v>
+        <v>27.09102275042833</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-1.913303359332683</v>
+        <v>27.091022782069</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>2.41053724988775</v>
+        <v>27.09102279213161</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>-17.46565031235601</v>
+        <v>27.09102275382789</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>7.426495743514824</v>
+        <v>27.09102278738927</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>11.5949653197801</v>
+        <v>27.09102279614537</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>8.527569438438489</v>
+        <v>27.09102279830205</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>12.42739470932266</v>
+        <v>27.09102280968917</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>15.76976752247841</v>
+        <v>27.09102281411037</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>-7.993064445821267</v>
+        <v>27.09102277216988</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>4.701808567098794</v>
+        <v>27.0910228038872</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>13.5221183598246</v>
+        <v>27.09102281259768</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>-7.755331605605948</v>
+        <v>27.09102279684084</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>6.276232546869103</v>
+        <v>27.09102282859968</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>13.26074602869853</v>
+        <v>27.09102283956726</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-19.00585414184977</v>
+        <v>27.09102279697932</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-1.423947181703836</v>
+        <v>27.09102283204231</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>5.966610160486624</v>
+        <v>27.09102284525885</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-19.03529234566524</v>
+        <v>27.09102280459883</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>8.856582127556669</v>
+        <v>27.09102284300038</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>38.81436661818773</v>
+        <v>27.09102284494571</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.43817541643454</v>
+        <v>27.09102284192987</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>38.29958644074785</v>
+        <v>27.09102285633114</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>44.74538730154112</v>
+        <v>27.09102286221229</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>9.59279817386258</v>
+        <v>27.09102281082065</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.65851453640358</v>
+        <v>27.09102284904696</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>38.41745139112341</v>
+        <v>27.09102285908456</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>15.99400145745784</v>
+        <v>27.09102282628293</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>27.81900629767888</v>
+        <v>27.09102285857939</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>36.40588267720277</v>
+        <v>27.09102286962386</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>3.589902467168836</v>
+        <v>27.09102282422813</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>21.53407150154151</v>
+        <v>27.09102285997913</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.57726773547986</v>
+        <v>27.09102287268308</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>7.556507165398893</v>
+        <v>27.09102283393344</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>35.34055795642504</v>
+        <v>27.09102287294922</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>47.32857191436822</v>
+        <v>27.09102288392101</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>41.98531870853948</v>
+        <v>27.09102287908426</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>50.47045029755387</v>
+        <v>27.09102289333346</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>59.85880416587313</v>
+        <v>27.09102289794255</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>12.40447536384578</v>
+        <v>27.09102284598236</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>40.57958456828063</v>
+        <v>27.09102288447766</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>49.74204569117527</v>
+        <v>27.09102289471763</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>49.42208287279962</v>
+        <v>27.09102286353665</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>40.36964743654291</v>
+        <v>27.09102285988461</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>50.84453054508825</v>
+        <v>27.09102287437357</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>57.74378609791789</v>
+        <v>27.09102288025854</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>17.90691909317687</v>
+        <v>27.09102282670503</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>43.66184548809183</v>
+        <v>27.09102286727881</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>51.98566879136478</v>
+        <v>27.09102287712154</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>21.00702822516847</v>
+        <v>27.09102284175074</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>36.51942475974601</v>
+        <v>27.09102287594727</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>44.65387419621651</v>
+        <v>27.09102288694731</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>11.82915609309674</v>
+        <v>27.091022841457</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.95130913381259</v>
+        <v>27.09102287965804</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>42.0477216808166</v>
+        <v>27.09102289251249</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>17.09612271443819</v>
+        <v>27.09102285224325</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>49.90366023202002</v>
+        <v>27.09102289360892</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>61.52665082850668</v>
+        <v>27.09102290456809</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>59.24541486302566</v>
+        <v>27.09102289908121</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>67.28008885845821</v>
+        <v>27.0910229133743</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>76.8874172357788</v>
+        <v>27.09102291796683</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>24.74791874121371</v>
+        <v>27.09102286389522</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>58.7271041288891</v>
+        <v>27.09102290466631</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>67.30842581428331</v>
+        <v>27.09102291461022</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>54.39424006203107</v>
+        <v>27.0910228657275</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>44.8529145741261</v>
+        <v>27.0910228618782</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>55.14128251949658</v>
+        <v>27.09102287618644</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>62.41399588653442</v>
+        <v>27.09102288204956</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>21.42752298436174</v>
+        <v>27.09102282867751</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>48.16147276410174</v>
+        <v>27.0910228692633</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>56.63047561922143</v>
+        <v>27.09102287902838</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>24.15666165759508</v>
+        <v>27.09102284366257</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>40.35625832209467</v>
+        <v>27.09102287782152</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>48.57459475217801</v>
+        <v>27.09102288873282</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>16.38386375492468</v>
+        <v>27.09102284389819</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>40.33768074911246</v>
+        <v>27.09102288209721</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>47.6037850886189</v>
+        <v>27.09102289488438</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>21.97182831341274</v>
+        <v>27.09102285465444</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>55.50373069757431</v>
+        <v>27.09102289595693</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>67.2614860162879</v>
+        <v>27.09102290683482</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>64.63837151259506</v>
+        <v>27.09102290118941</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>72.55835218159943</v>
+        <v>27.09102291529616</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>82.40359786980932</v>
+        <v>27.09102291986859</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.07962844110827</v>
+        <v>27.09102286593028</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>64.08591123089757</v>
+        <v>27.09102290674634</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>72.76934162139656</v>
+        <v>27.09102291657453</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>19.29779504773268</v>
+        <v>27.0910228541681</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>11.33128161868771</v>
+        <v>27.09102285031384</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>22.2887892354239</v>
+        <v>27.0910228644558</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.07065519870681</v>
+        <v>27.09102287041565</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>-9.271248824645857</v>
+        <v>27.09102281840397</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>14.90344132311774</v>
+        <v>27.09102285768771</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>23.4726773668767</v>
+        <v>27.09102286768854</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>-5.168392597681688</v>
+        <v>27.09102283406355</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>9.256910647970928</v>
+        <v>27.09102286711449</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>17.72802392373476</v>
+        <v>27.09102287815013</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>-16.78825870999282</v>
+        <v>27.09102283384974</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>4.810671631026938</v>
+        <v>27.09102287062799</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>12.03830591179128</v>
+        <v>27.09102288345801</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>-13.26699890169416</v>
+        <v>27.09102284375942</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>18.22474288494918</v>
+        <v>27.09102288365536</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>30.23996633141524</v>
+        <v>27.09102289462603</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>28.83739227158408</v>
+        <v>27.09102288901115</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>37.26670993911054</v>
+        <v>27.09102290297902</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>46.89878631443012</v>
+        <v>27.09102290765837</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>-3.84127426234173</v>
+        <v>27.09102285491163</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>28.59438270684096</v>
+        <v>27.09102289454724</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>37.49519582772202</v>
+        <v>27.09102290465371</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>16.4238265576276</v>
+        <v>27.09102273885989</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>26.86017106223017</v>
+        <v>27.09102276823613</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>33.07024335755225</v>
+        <v>27.0910227781181</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>6.485237780787829</v>
+        <v>27.09102273882313</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>27.05743411852409</v>
+        <v>27.0910227734227</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>31.67878670596013</v>
+        <v>27.09102278424184</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>11.28108967655305</v>
+        <v>27.0910227429306</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>40.86759414333645</v>
+        <v>27.09102277968572</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>45.46145812950878</v>
+        <v>27.09102278914064</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>36.45343582982108</v>
+        <v>27.09102279126716</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>41.59668077622063</v>
+        <v>27.09102280380922</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>44.72173700041411</v>
+        <v>27.09102280850185</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>14.30296384401563</v>
+        <v>27.09102276281878</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>30.49156281504532</v>
+        <v>27.09102279728054</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>39.25982602522917</v>
+        <v>27.09102280683595</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>17.87626002646067</v>
+        <v>27.09102278861721</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>33.13510356041349</v>
+        <v>27.09102282328691</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>39.39402136293416</v>
+        <v>27.0910228350053</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>3.910604870715677</v>
+        <v>27.09102278620797</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>21.97842190982291</v>
+        <v>27.09102282444966</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.66577374571714</v>
+        <v>27.09102283837354</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>5.596399679539569</v>
+        <v>27.09102279496649</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>36.01463180251743</v>
+        <v>27.09102283688796</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>16.73586349913508</v>
+        <v>27.09102274937354</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>30.06307665735081</v>
+        <v>27.0910227805167</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>35.75370978894193</v>
+        <v>27.09102279030972</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>9.303739867601355</v>
+        <v>27.09102275112334</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>34.0719171744712</v>
+        <v>27.09102278800398</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>38.59840232328756</v>
+        <v>27.09102279892911</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>14.8520395384002</v>
+        <v>27.09102275598843</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>48.33897909335005</v>
+        <v>27.09102279488008</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>52.44519895765777</v>
+        <v>27.09102280433144</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>47.68672647265326</v>
+        <v>27.09102280649258</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>52.70329965063547</v>
+        <v>27.09102281912679</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>56.03263060474769</v>
+        <v>27.0910228238391</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>20.71019483327078</v>
+        <v>27.09102277577356</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>41.86336509894031</v>
+        <v>27.09102281246306</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>49.66698433917536</v>
+        <v>27.09102282177616</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>19.57885316264244</v>
+        <v>27.09102280311665</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>38.57763638688321</v>
+        <v>27.09102283983562</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>44.68290840986558</v>
+        <v>27.09102285155475</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>9.381216145926389</v>
+        <v>27.09102280281578</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>32.75086172817398</v>
+        <v>27.0910228436799</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>39.77909512723993</v>
+        <v>27.09102285781898</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>12.10831978923997</v>
+        <v>27.09102281264234</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>47.63338835483975</v>
+        <v>27.09102285706376</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>18.98679767725586</v>
+        <v>27.0910227512216</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>32.84791447013349</v>
+        <v>27.09102278232717</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>38.63009120135009</v>
+        <v>27.09102279202862</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>12.95960444157068</v>
+        <v>27.09102275354586</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>38.34402687033504</v>
+        <v>27.09102279040076</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>43.04006051767884</v>
+        <v>27.09102280125047</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>18.74286894473411</v>
+        <v>27.09102275838243</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>52.72030048932002</v>
+        <v>27.09102279719583</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>56.99766533444116</v>
+        <v>27.0910228065716</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>52.26825725859641</v>
+        <v>27.09102280863911</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>57.23154163051019</v>
+        <v>27.09102282112819</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>60.81531770442242</v>
+        <v>27.09102282582407</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>23.97662207348035</v>
+        <v>27.09102277777214</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>45.99875503291166</v>
+        <v>27.09102281452931</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>53.84145097430507</v>
+        <v>27.09102282374544</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>22.2482763965602</v>
+        <v>27.09102280502081</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>41.90190842357612</v>
+        <v>27.0910228416624</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>48.17876246777676</v>
+        <v>27.09102285332118</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>13.48488145770953</v>
+        <v>27.09102280534436</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>37.66193320465894</v>
+        <v>27.09102284616464</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>44.97426083519566</v>
+        <v>27.09102286027611</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>16.55801080710735</v>
+        <v>27.09102281512186</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>52.7553527818161</v>
+        <v>27.0910228594375</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-7.970835806759137</v>
+        <v>27.0910227441351</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>4.515306351813166</v>
+        <v>27.09102277414523</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>10.48768854622429</v>
+        <v>27.09102278400223</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-17.69127774436459</v>
+        <v>27.09102274595824</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>5.946167814449209</v>
+        <v>27.09102278140205</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>10.57919993463606</v>
+        <v>27.09102279229517</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>-13.63145404768708</v>
+        <v>27.09102275016987</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>18.95300569115702</v>
+        <v>27.09102278764237</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>23.33793413785003</v>
+        <v>27.09102279710485</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>19.14313169972074</v>
+        <v>27.09102279890037</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>24.42747740215712</v>
+        <v>27.09102281126204</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>27.63740311711659</v>
+        <v>27.09102281602486</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>-5.982318476501886</v>
+        <v>27.09102276932594</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>13.70660036440965</v>
+        <v>27.09102280486469</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>21.9410123819169</v>
+        <v>27.09102281432205</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>-7.728199500852668</v>
+        <v>27.09102279536815</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>10.24486169007077</v>
+        <v>27.09102283074091</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>16.50680004807547</v>
+        <v>27.09102284252106</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>-20.7968542990146</v>
+        <v>27.09102279502659</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>1.017138661517766</v>
+        <v>27.09102283424476</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>8.068784890226375</v>
+        <v>27.09102284839695</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-19.8520504853252</v>
+        <v>27.09102280391538</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>14.37895355503925</v>
+        <v>27.09102284666601</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>45.67874409067937</v>
+        <v>27.09102284874887</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>34.386183777147</v>
+        <v>27.09102284516771</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>46.46857680161662</v>
+        <v>27.09102286074368</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>51.66010720977475</v>
+        <v>27.09102286708405</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>10.38003302545123</v>
+        <v>27.09102281034967</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>35.21721877759608</v>
+        <v>27.09102285274204</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>43.67631548584261</v>
+        <v>27.09102286376098</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>17.12123004217944</v>
+        <v>27.09102282813411</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>33.01961688995262</v>
+        <v>27.09102286412051</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>41.43638773552613</v>
+        <v>27.09102287603089</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>2.415008854905845</v>
+        <v>27.09102282540405</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>24.97309836791204</v>
+        <v>27.09102286537754</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>31.8257020222428</v>
+        <v>27.09102287904876</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>8.110947532007613</v>
+        <v>27.0910228366426</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>42.54148038620678</v>
+        <v>27.09102288008694</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>54.47185279046854</v>
+        <v>27.09102289189878</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>49.1194286459289</v>
+        <v>27.09102288626923</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>58.64149113923168</v>
+        <v>27.09102290172261</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>68.0711514470959</v>
+        <v>27.09102290669235</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>12.37645646890814</v>
+        <v>27.09102284918963</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>47.10961094324047</v>
+        <v>27.09102289201108</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>55.07068210025137</v>
+        <v>27.09102290318557</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>57.43813009282015</v>
+        <v>27.09102286902851</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>48.81422512103507</v>
+        <v>27.09102286476824</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>60.48097987964787</v>
+        <v>27.09102288043795</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>66.08799320053622</v>
+        <v>27.09102288678484</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>19.61749378437732</v>
+        <v>27.09102282767475</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>50.7857784372227</v>
+        <v>27.09102287265274</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>58.67752250075009</v>
+        <v>27.091022883439</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>22.41029256200024</v>
+        <v>27.09102284505026</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>42.41161458309268</v>
+        <v>27.0910228831337</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>50.26378014349081</v>
+        <v>27.09102289497704</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>11.36751145286683</v>
+        <v>27.09102284423914</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>39.70188645870299</v>
+        <v>27.09102288695576</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>46.50450179686737</v>
+        <v>27.09102290074157</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>18.47645927856083</v>
+        <v>27.09102285662243</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>58.49964625626328</v>
+        <v>27.0910229026536</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>69.92336499387564</v>
+        <v>27.09102291442708</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>68.02373279589689</v>
+        <v>27.09102290809908</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>77.05327288472006</v>
+        <v>27.09102292360689</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>86.68122772033152</v>
+        <v>27.09102292855823</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>25.76746259848387</v>
+        <v>27.09102286872628</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>66.99159449062554</v>
+        <v>27.09102291406649</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>74.21751369083407</v>
+        <v>27.09102292489458</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>62.84587526685635</v>
+        <v>27.09102287135982</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>53.72283194879467</v>
+        <v>27.09102286689641</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>65.19432082535616</v>
+        <v>27.09102288236758</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>71.20288218087057</v>
+        <v>27.09102288869483</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>23.48083453276909</v>
+        <v>27.0910228297864</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>55.70056132403199</v>
+        <v>27.09102287477151</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>63.74512029751968</v>
+        <v>27.09102288547034</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>25.7743536820031</v>
+        <v>27.09102284707907</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>46.51317917120511</v>
+        <v>27.0910228851154</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>54.44518572271075</v>
+        <v>27.09102289686301</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>16.32933615002647</v>
+        <v>27.09102284686235</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>45.57730641621564</v>
+        <v>27.09102288957405</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>52.54133682640737</v>
+        <v>27.09102290328413</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>23.78122934727594</v>
+        <v>27.09102285919466</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>64.57446171316431</v>
+        <v>27.0910229051483</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>76.13137065268853</v>
+        <v>27.0910229168316</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>73.89640259908415</v>
+        <v>27.0910229103435</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>82.80426323541</v>
+        <v>27.0910229256489</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>92.68867370459476</v>
+        <v>27.0910229305813</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>30.48747682979011</v>
+        <v>27.09102287090012</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>72.81968344661639</v>
+        <v>27.09102291628608</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>80.15317002766874</v>
+        <v>27.09102292698351</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>24.34516721651796</v>
+        <v>27.09102285863832</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>16.91028861496741</v>
+        <v>27.09102285417263</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.10171601696264</v>
+        <v>27.09102286945501</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>34.56822703092822</v>
+        <v>27.09102287589443</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-10.27354611709982</v>
+        <v>27.09102281847441</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>19.17142840015866</v>
+        <v>27.09102286201655</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>27.32857279864343</v>
+        <v>27.09102287298947</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>-6.310941257476284</v>
+        <v>27.09102283645491</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>12.52633742177663</v>
+        <v>27.09102287326424</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>20.74496520935484</v>
+        <v>27.0910228851631</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-20.07799530810227</v>
+        <v>27.09102283577287</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>6.606454716611488</v>
+        <v>27.09102287688449</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>13.56389448776157</v>
+        <v>27.09102289067469</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-14.8592788600512</v>
+        <v>27.09102284718966</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>23.75474342048369</v>
+        <v>27.09102289159009</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>35.61803414876972</v>
+        <v>27.09102290338828</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>34.67201834752494</v>
+        <v>27.09102289694816</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>44.13628263300645</v>
+        <v>27.09102291208913</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>53.78766788661736</v>
+        <v>27.09102291714458</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>-5.607532735387068</v>
+        <v>27.09102285878016</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>33.92712917969976</v>
+        <v>27.09102290285408</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>41.49700276554226</v>
+        <v>27.09102291386713</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/additive/ranking_test4/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.13</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.284</v>
+        <v>14.806</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.113</v>
+        <v>0.8070000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.174</v>
+        <v>11.731</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.035</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.869</v>
+        <v>4.973</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>27.09102273892545</v>
+        <v>11.75555538532313</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27.09102276788019</v>
+        <v>9.126653685342635</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.09102277796573</v>
+        <v>21.33717912339626</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>27.09102273999956</v>
+        <v>3.260395439495042</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>27.09102277415799</v>
+        <v>17.87259733520751</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.09102278516443</v>
+        <v>19.37727003792052</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>27.09102274354031</v>
+        <v>6.60852701599989</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.09102277992263</v>
+        <v>28.44823506948785</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.09102278954522</v>
+        <v>29.62995428286276</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>27.0910227919529</v>
+        <v>11.19347292087524</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>27.09102280463957</v>
+        <v>16.70540477916012</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>27.09102280952105</v>
+        <v>19.34835284205477</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>27.09102276435943</v>
+        <v>23.2999753501381</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.09102279823176</v>
+        <v>15.25195115941582</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>27.09102280794146</v>
+        <v>30.58584676046454</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>27.09102279115686</v>
+        <v>14.51712131788652</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.09102282543979</v>
+        <v>25.17727323145741</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>27.09102283751009</v>
+        <v>35.25166238496421</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>27.09102278984653</v>
+        <v>5.975271928454521</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>27.09102282748189</v>
+        <v>14.85104122356641</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>27.09102284181266</v>
+        <v>16.80063119732179</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>27.09102279789652</v>
+        <v>0.7334860934041103</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27.09102283942173</v>
+        <v>20.51914947044401</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>27.09102274967053</v>
+        <v>17.36198690080029</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.09102278040003</v>
+        <v>21.65738953555033</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>27.09102279038273</v>
+        <v>23.4696855613798</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>27.09102275254459</v>
+        <v>2.001878207794938</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.09102278893834</v>
+        <v>29.36097440079393</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>27.09102280007706</v>
+        <v>28.41782672569457</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>27.09102275690588</v>
+        <v>4.765475661031136</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>27.09102279543163</v>
+        <v>37.61314232522325</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>27.09102280505234</v>
+        <v>35.05827439531883</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>27.0910228075214</v>
+        <v>37.23761692762349</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>27.09102282029716</v>
+        <v>41.93986969229747</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>27.09102282518243</v>
+        <v>43.75929865461899</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>27.09102277764946</v>
+        <v>27.49161094361692</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>27.09102281373129</v>
+        <v>38.04142657204588</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>27.09102282318714</v>
+        <v>43.98291143382733</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>27.09102280589553</v>
+        <v>18.92839482510142</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>27.09102284223801</v>
+        <v>37.25574010939735</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>27.09102285429749</v>
+        <v>41.57616168981708</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>27.09102280671758</v>
+        <v>8.632510972886827</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>27.09102284692908</v>
+        <v>33.70996177067847</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>27.09102286150798</v>
+        <v>43.8369626884073</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>27.09102285992619</v>
+        <v>52.13369062790954</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>27.09102275162353</v>
+        <v>7.115174128941003</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.09102278232864</v>
+        <v>17.18350841213257</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>27.09102279220782</v>
+        <v>22.40646969760264</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>27.09102275505469</v>
+        <v>1.368300319200539</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>27.09102279143053</v>
+        <v>29.85228177573643</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>27.09102280248604</v>
+        <v>30.3536357312277</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>27.09102275941498</v>
+        <v>5.578048751938912</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>27.09102279787897</v>
+        <v>40.74259227950682</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>27.09102280741622</v>
+        <v>42.19270598690629</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>27.09102280977811</v>
+        <v>42.01869758823863</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>27.09102282241023</v>
+        <v>44.82506588326716</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>27.09102282726636</v>
+        <v>50.90912277771206</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>27.09102277973561</v>
+        <v>17.21580647060032</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>27.09102281589927</v>
+        <v>29.73550110971343</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>27.09102282525298</v>
+        <v>36.04939163974858</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>27.09102280786849</v>
+        <v>12.33472483754456</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>27.09102284414495</v>
+        <v>32.28040784978764</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>27.09102285613372</v>
+        <v>39.27487058336034</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>27.09102280930086</v>
+        <v>5.68793511732795</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>27.09102284947495</v>
+        <v>27.63010537762414</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>27.09102286402135</v>
+        <v>42.64497405178398</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>27.09102281845153</v>
+        <v>4.968406767392015</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>27.09102286239499</v>
+        <v>46.81869694135629</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>27.0910227445491</v>
+        <v>2.360630279402429</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>27.09102277416585</v>
+        <v>10.81417818018355</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>27.09102278420046</v>
+        <v>21.52037336610838</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>27.09102274747291</v>
+        <v>1.370325236249244</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>27.09102278247762</v>
+        <v>28.46797586450823</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>27.09102279355478</v>
+        <v>34.00812172554399</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>27.09102275119224</v>
+        <v>2.024459845988929</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>27.09102278832806</v>
+        <v>40.02326082645968</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>27.09102279794477</v>
+        <v>42.8850477997285</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>27.09102279999675</v>
+        <v>33.8225545584815</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>27.09102281252295</v>
+        <v>38.17510342854533</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>27.09102281744172</v>
+        <v>43.24174693116198</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>27.09102277124238</v>
+        <v>15.0116003218795</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>27.09102280621041</v>
+        <v>25.57132833332422</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>27.09102281581607</v>
+        <v>39.30936508729047</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>27.09102279825337</v>
+        <v>8.971804276695643</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>27.09102283326124</v>
+        <v>27.74671594990687</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>27.09102284537494</v>
+        <v>39.81209071160288</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>27.09102279899692</v>
+        <v>6.602961982741121</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>27.09102283760077</v>
+        <v>26.93147995906556</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>27.09102285217731</v>
+        <v>42.61034832019824</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>27.09102280724457</v>
+        <v>2.567633591498893</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>27.09102284962694</v>
+        <v>39.81829718504611</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>27.09102285159612</v>
+        <v>29.88149023285759</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>27.09102284789861</v>
+        <v>22.02756549620314</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>27.09102286381925</v>
+        <v>41.50903853737793</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>27.09102287042482</v>
+        <v>47.29494976446816</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>27.09102281361222</v>
+        <v>5.305635779158752</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>27.09102285576378</v>
+        <v>19.01651341234918</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>27.09102286673186</v>
+        <v>26.68744607731736</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>27.0910228294549</v>
+        <v>12.18028591871798</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>27.09102286497691</v>
+        <v>19.70596928752425</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>27.09102287722286</v>
+        <v>32.38860246697186</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>27.09102282772811</v>
+        <v>2.046659273817319</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>27.09102286701438</v>
+        <v>10.08443520387791</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>27.09102288108324</v>
+        <v>16.46761036082412</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>27.091022838166</v>
+        <v>-1.446065813066106</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>27.09102288112171</v>
+        <v>20.34987220608031</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>27.09102289328736</v>
+        <v>37.46898516457733</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>27.09102288755194</v>
+        <v>22.2026384063184</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>27.09102290336751</v>
+        <v>45.35176840236758</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>27.09102290852599</v>
+        <v>54.0714826794845</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>27.09102285110299</v>
+        <v>1.803367896122523</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>27.09102289349744</v>
+        <v>18.54655057801507</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>27.09102290482496</v>
+        <v>31.35177247106677</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>27.09102287221047</v>
+        <v>64.74133998970876</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>27.09102286781488</v>
+        <v>54.32329395920289</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>27.09102288383985</v>
+        <v>68.70116139875634</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>27.09102289043215</v>
+        <v>74.55709577845224</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>27.09102283125044</v>
+        <v>19.9581839815109</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>27.09102287598761</v>
+        <v>64.06684030811091</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>27.09102288671665</v>
+        <v>66.22243153603691</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>27.09102284656394</v>
+        <v>23.89736861443647</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>27.09102288419439</v>
+        <v>41.25762319213838</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>27.09102289636715</v>
+        <v>47.59438222017469</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>27.0910228467731</v>
+        <v>9.463478098173301</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>27.09102288875343</v>
+        <v>41.29469996706001</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>27.09102290297404</v>
+        <v>49.29309257013642</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>27.09102285841146</v>
+        <v>8.950962698689011</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>27.09102290396678</v>
+        <v>63.66727056675872</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>27.09102291610238</v>
+        <v>73.91806396778264</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>27.09102290964859</v>
+        <v>76.72173118615635</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>27.09102292551558</v>
+        <v>87.26256624470651</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>27.09102293064501</v>
+        <v>91.40556349391477</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>27.09102287089586</v>
+        <v>26.94883775642184</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>27.09102291580592</v>
+        <v>77.71272397862001</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>27.09102292679069</v>
+        <v>80.69244951259213</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>27.09102287463068</v>
+        <v>68.00035004097558</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>27.09102287002375</v>
+        <v>44.00660932573354</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>27.09102288584951</v>
+        <v>53.97983949855387</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>27.09102289241087</v>
+        <v>71.55935288256259</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>27.09102283342948</v>
+        <v>12.29936868548293</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>27.0910228781859</v>
+        <v>57.48157508296526</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>27.09102284868039</v>
+        <v>14.39806390901323</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>27.09102288627514</v>
+        <v>35.3624131217486</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.09102289834353</v>
+        <v>46.09025590926056</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>27.09102284946625</v>
+        <v>5.348606611939886</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>27.09102289144759</v>
+        <v>37.59573786826232</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>27.09102290558868</v>
+        <v>48.85169888973608</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>27.09102286108066</v>
+        <v>4.040607797228041</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>27.09102290657241</v>
+        <v>59.58870874448774</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>27.0910229186125</v>
+        <v>78.27962005611974</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>27.09102291198935</v>
+        <v>69.59366094419765</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>27.09102292764819</v>
+        <v>79.14778003841911</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>27.09102293275092</v>
+        <v>92.7319441246816</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>27.09102287315127</v>
+        <v>14.8363531373273</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>27.09102291811129</v>
+        <v>68.70815636395653</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>27.09102292896592</v>
+        <v>78.10613708397426</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>27.09102286190885</v>
+        <v>62.55923354779866</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>27.09102285730029</v>
+        <v>28.22282837316057</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>27.09102287293791</v>
+        <v>38.68542581521754</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>27.09102287961393</v>
+        <v>53.96900046762437</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>27.09102282212205</v>
+        <v>10.49359952669713</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>27.09102286545103</v>
+        <v>50.37645747879938</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>27.09102287636574</v>
+        <v>59.16464441691725</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>27.09102283814476</v>
+        <v>11.93908011013315</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>27.09102287451064</v>
+        <v>34.37389012765682</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>27.09102288673462</v>
+        <v>49.86399757696638</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>27.09102283843545</v>
+        <v>8.19040794938563</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>27.09102287885161</v>
+        <v>37.22168167196448</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>27.09102289305825</v>
+        <v>52.56642181101799</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>27.09102284912149</v>
+        <v>2.610658537632659</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>27.09102289305952</v>
+        <v>53.3699641629278</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>27.09102290521347</v>
+        <v>76.4879841521084</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>27.09102289862584</v>
+        <v>57.0005139775795</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>27.09102291413108</v>
+        <v>71.67557967767243</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>27.09102291935717</v>
+        <v>91.08675412617714</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>27.09102286107382</v>
+        <v>13.04045781550768</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>27.09102290472254</v>
+        <v>65.89583720635538</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>27.09102291590028</v>
+        <v>80.92508293599232</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>27.09102275344643</v>
+        <v>13.9129869909787</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>27.09102278128439</v>
+        <v>33.07477273711791</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>27.09102279043687</v>
+        <v>45.92899382250731</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>27.09102275386063</v>
+        <v>2.752018783335217</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.09102278681134</v>
+        <v>39.35350648933053</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>27.0910227968206</v>
+        <v>45.94882070700291</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>27.09102275825584</v>
+        <v>8.383491656439311</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>27.09102279310138</v>
+        <v>71.18019592440842</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>27.09102280181797</v>
+        <v>75.43845703990354</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>27.09102280292908</v>
+        <v>39.82190112835672</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>27.09102281473515</v>
+        <v>48.3319616135897</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>27.09102281892864</v>
+        <v>51.06480530410532</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>27.09102277562449</v>
+        <v>18.40810626750737</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>27.09102280805887</v>
+        <v>29.73523350474588</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>27.09102281692029</v>
+        <v>55.47201712887475</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>27.0910228000859</v>
+        <v>17.11392975961877</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>27.09102283292693</v>
+        <v>33.67765417824803</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>27.09102284366914</v>
+        <v>37.60167902360499</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>27.09102279802139</v>
+        <v>-1.552752081885217</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>27.09102283442475</v>
+        <v>20.831709902268</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>27.09102284724849</v>
+        <v>19.67113538931313</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>27.09102280684928</v>
+        <v>-0.1930290560609578</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>27.09102284656326</v>
+        <v>39.50242787250369</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>27.09102276332586</v>
+        <v>27.58315595194503</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>27.09102279281176</v>
+        <v>54.00667086033826</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>27.09102280187524</v>
+        <v>54.7642291809941</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>27.09102276537798</v>
+        <v>8.962186801344515</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>27.09102280046375</v>
+        <v>58.84693194061428</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>27.09102281055784</v>
+        <v>58.8414565897855</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>27.09102277047437</v>
+        <v>13.15377418317442</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>27.09102280730866</v>
+        <v>86.63210935930871</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>27.09102281601476</v>
+        <v>83.77879356634014</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>27.09102281716049</v>
+        <v>74.78920702872006</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>27.09102282903701</v>
+        <v>83.55617195164754</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>27.09102283325988</v>
+        <v>80.49446433132889</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>27.09102278773201</v>
+        <v>28.75145287826891</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>27.09102282221638</v>
+        <v>59.8925244020937</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>27.09102283085253</v>
+        <v>72.29760029383394</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>27.09102281359298</v>
+        <v>25.79526686671491</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>27.09102284834195</v>
+        <v>49.41522227468467</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>27.09102285907002</v>
+        <v>46.69372995792402</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>27.09102281345822</v>
+        <v>3.570467092028931</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>27.09102285231626</v>
+        <v>42.23233921230022</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>27.09102286531829</v>
+        <v>43.14398449416083</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>27.09102282326463</v>
+        <v>7.510196048972833</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>27.09102286530252</v>
+        <v>69.85352179289282</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>27.09102276493053</v>
+        <v>10.52935266308076</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>27.09102279438036</v>
+        <v>40.77540572163095</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>27.09102280335638</v>
+        <v>44.59663397883937</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>27.09102276751069</v>
+        <v>5.185970443618658</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>27.09102280257065</v>
+        <v>54.99511058994783</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>27.09102281258718</v>
+        <v>55.83360262060654</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>27.09102277256855</v>
+        <v>9.417908112996962</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>27.09102280932427</v>
+        <v>82.78125405853433</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>27.09102281795868</v>
+        <v>82.80206156777348</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>27.09102281903397</v>
+        <v>81.46820608789648</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>27.09102283076991</v>
+        <v>89.37511785019265</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>27.09102283498013</v>
+        <v>86.95613875005884</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>27.09102278946394</v>
+        <v>12.33732691254635</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>27.09102282400961</v>
+        <v>46.45501645354593</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>27.09102283255337</v>
+        <v>58.64938366003657</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>27.09102281526163</v>
+        <v>16.46109876579351</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>27.09102284994064</v>
+        <v>41.3630012663069</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>27.09102286060552</v>
+        <v>41.37651591076761</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.09102281570811</v>
+        <v>1.161047458911142</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>27.09102285452814</v>
+        <v>37.36991653704408</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>27.09102286749203</v>
+        <v>41.95458466782964</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>27.09102282545527</v>
+        <v>4.427341709699213</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>27.09102286739276</v>
+        <v>63.08251367786193</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>27.09102275821996</v>
+        <v>5.747050026457828</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>27.09102278665676</v>
+        <v>34.19482585581478</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>27.09102279577297</v>
+        <v>45.21564315768319</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>27.09102276036273</v>
+        <v>6.612776383167901</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>27.09102279411792</v>
+        <v>54.21648823465281</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>27.09102280416156</v>
+        <v>63.10371166397892</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>27.09102276482732</v>
+        <v>7.76080622585388</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>27.09102280033845</v>
+        <v>83.89868015677114</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>27.09102280905083</v>
+        <v>87.4520161600088</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>27.09102280988711</v>
+        <v>73.58754530363586</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>27.09102282152171</v>
+        <v>83.30815543577737</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>27.09102282577856</v>
+        <v>85.35190520288478</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>27.09102278151459</v>
+        <v>9.844213408483682</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>27.09102281495485</v>
+        <v>42.74254977011681</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>27.09102282370884</v>
+        <v>64.41835941994235</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>27.09102280624199</v>
+        <v>12.64097184685234</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>27.09102283975334</v>
+        <v>36.1649583745528</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>27.09102285052868</v>
+        <v>42.55353856402545</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>27.09102280611505</v>
+        <v>2.575132142760662</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>27.09102284345586</v>
+        <v>35.94705056694914</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>27.09102285644666</v>
+        <v>44.77899543040684</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>27.09102281503231</v>
+        <v>3.584680990926248</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>27.09102285552419</v>
+        <v>57.28465033586571</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>27.09102285739518</v>
+        <v>43.01417248093978</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>27.09102285341427</v>
+        <v>33.99554001094096</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27.09102286799362</v>
+        <v>48.99677403675675</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>27.09102287361339</v>
+        <v>52.53030920461446</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>27.09102282020444</v>
+        <v>10.20906042891359</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>27.09102286026667</v>
+        <v>33.01379780064376</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>27.09102287032309</v>
+        <v>42.19170528741565</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>27.09102283572829</v>
+        <v>15.14030624437409</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>27.09102286970366</v>
+        <v>31.12405266450762</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>27.09102288061832</v>
+        <v>40.3797207723919</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>27.09102283339475</v>
+        <v>-2.306033962946564</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>27.09102287133438</v>
+        <v>20.37888554453448</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>27.09102288387973</v>
+        <v>25.12755897108978</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>27.091022844473</v>
+        <v>0.6573288113207951</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>27.09102288552377</v>
+        <v>43.82705665915525</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>27.09102289629667</v>
+        <v>59.83136537959136</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>27.09102289052823</v>
+        <v>40.36507658433908</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>27.09102290491711</v>
+        <v>56.29357532400888</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>27.09102290934077</v>
+        <v>63.95701672817054</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>27.09102285530526</v>
+        <v>8.901486587836914</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>27.0910228956664</v>
+        <v>34.05900881562929</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>27.09102290590297</v>
+        <v>49.19812960777659</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>27.09102287621533</v>
+        <v>73.14398401037805</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>27.09102287160945</v>
+        <v>66.71405907678351</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>27.09102288625919</v>
+        <v>77.67678548042454</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>27.09102289189339</v>
+        <v>76.76379206864915</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>27.09102283628573</v>
+        <v>23.36343686062515</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>27.09102287871946</v>
+        <v>74.078494577263</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>27.0910228885573</v>
+        <v>73.58766022944408</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>27.09102285142962</v>
+        <v>25.42720140694279</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>27.09102288734853</v>
+        <v>49.84945103076637</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>27.09102289818551</v>
+        <v>49.40383741175488</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>27.09102285085558</v>
+        <v>3.076235152624704</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>27.09102289136038</v>
+        <v>48.53020396010256</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>27.09102290398302</v>
+        <v>48.54537466748378</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>27.09102286298006</v>
+        <v>6.634072472680668</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>27.0910229064287</v>
+        <v>78.84974558143205</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>27.0910229171504</v>
+        <v>81.67561594758286</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>27.09102291074066</v>
+        <v>85.78259315559434</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>27.09102292516933</v>
+        <v>91.90067657309456</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>27.09102292958086</v>
+        <v>91.10582706538037</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>27.09102287339919</v>
+        <v>28.16648676318058</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>27.09102291606813</v>
+        <v>85.12694794994516</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>27.09102292597456</v>
+        <v>85.06361857382741</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>27.09102287825924</v>
+        <v>73.45573316775952</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>27.09102287347952</v>
+        <v>62.49953952250752</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>27.09102288794269</v>
+        <v>71.5632029389307</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>27.09102289355791</v>
+        <v>77.24568133320119</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>27.09102283813727</v>
+        <v>13.5674035585228</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>27.09102288057697</v>
+        <v>68.47568973415554</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>27.09102289032713</v>
+        <v>69.78280439881789</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>27.09102285320311</v>
+        <v>14.08768882963374</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>27.09102288908</v>
+        <v>41.91147441700188</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>27.09102289982209</v>
+        <v>44.82191214467564</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>27.09102285318013</v>
+        <v>-0.5820490339965723</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>27.0910228936822</v>
+        <v>45.88090056969222</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>27.09102290622365</v>
+        <v>47.69722844660988</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>27.09102286524346</v>
+        <v>1.373387529667063</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>27.09102290861769</v>
+        <v>74.02645150837486</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>27.09102291925018</v>
+        <v>82.5759187532126</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>27.09102291270341</v>
+        <v>84.70855949627854</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>27.09102292694328</v>
+        <v>91.05058248906471</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>27.09102293133658</v>
+        <v>95.75943091009188</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>27.0910228752934</v>
+        <v>14.40254090846584</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>27.09102291800593</v>
+        <v>79.08300260764558</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>27.0910229277847</v>
+        <v>82.53164287833476</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>27.09102286643481</v>
+        <v>71.92579711953957</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>27.09102286166758</v>
+        <v>46.32193049409886</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>27.09102287598376</v>
+        <v>58.19182371335264</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>27.09102288168075</v>
+        <v>64.57823849897164</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>27.09102282762342</v>
+        <v>11.67319917267555</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>27.09102286876738</v>
+        <v>62.42498098122646</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>27.09102287874996</v>
+        <v>71.11633281665451</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>27.09102284328223</v>
+        <v>9.804626522353509</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>27.09102287803832</v>
+        <v>39.57703439938685</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>27.09102288891632</v>
+        <v>48.52743836668312</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>27.09102284286438</v>
+        <v>1.224066484825471</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>27.09102288188999</v>
+        <v>44.72877603303186</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>27.09102289449803</v>
+        <v>52.79031813403506</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>27.0910228540745</v>
+        <v>0.04444736462034626</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>27.09102289601983</v>
+        <v>69.41916142923426</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>27.09102290675496</v>
+        <v>84.47266066132683</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>27.09102290026535</v>
+        <v>74.6347859383566</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>27.09102291437222</v>
+        <v>85.08687597479229</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>27.09102291886243</v>
+        <v>95.751154669328</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>27.09102286401875</v>
+        <v>10.35686451096016</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>27.09102290555585</v>
+        <v>75.943675627437</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>27.09102291561008</v>
+        <v>87.7084775560721</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>27.09102273573859</v>
+        <v>15.39979023527271</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>27.09102276466086</v>
+        <v>12.84563533676029</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>27.09102277478319</v>
+        <v>22.7361656468116</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>27.09102273653602</v>
+        <v>2.997049605979424</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>27.09102277058949</v>
+        <v>14.93516720833467</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>27.09102278167922</v>
+        <v>16.48771057783363</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>27.09102274009005</v>
+        <v>8.030130353035847</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>27.09102277640066</v>
+        <v>27.63956754406174</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>27.091022786102</v>
+        <v>28.31138785506253</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>27.09102278882701</v>
+        <v>13.79353282997846</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>27.09102280155578</v>
+        <v>18.44251630177583</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>27.09102280645877</v>
+        <v>20.39653891419779</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>27.09102276132135</v>
+        <v>23.98802349961987</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>27.09102279522212</v>
+        <v>19.14301455269346</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>27.09102280500866</v>
+        <v>33.99903354538592</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>27.0910227869446</v>
+        <v>12.22163725999614</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>27.09102282118379</v>
+        <v>20.44779394925445</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>27.09102283333261</v>
+        <v>30.14104451201114</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>27.09102278529566</v>
+        <v>2.084799645624877</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>27.09102282286246</v>
+        <v>7.435508013758344</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>27.09102283729261</v>
+        <v>10.44363306734004</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>27.09102279334646</v>
+        <v>-1.182284511142356</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>27.09102283479146</v>
+        <v>11.96724143117189</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>27.09102274642082</v>
+        <v>18.56128110752181</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>27.09102277711319</v>
+        <v>23.27908902357463</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>27.091022787149</v>
+        <v>24.12701388072428</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>27.09102274903315</v>
+        <v>1.59289897356004</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>27.0910227853226</v>
+        <v>26.98700966014377</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>27.09102279656069</v>
+        <v>26.80584515219612</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>27.09102275340753</v>
+        <v>5.702659094619424</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>27.09102279186139</v>
+        <v>37.2690193616857</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>27.09102280157505</v>
+        <v>35.35078981239637</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>27.09102280435545</v>
+        <v>39.84541377837463</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>27.09102281717472</v>
+        <v>44.56690716288784</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>27.09102282208458</v>
+        <v>45.59664160504694</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>27.0910227745644</v>
+        <v>28.51789024916876</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>27.09102281068945</v>
+        <v>44.70443780924408</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>27.0910228202383</v>
+        <v>51.18150199233524</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>27.09102280168957</v>
+        <v>15.42353155067427</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>27.09102283798578</v>
+        <v>31.60382971104522</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>27.0910228501451</v>
+        <v>37.3033793948449</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>27.0910228021788</v>
+        <v>4.907488733173313</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>27.09102284232659</v>
+        <v>26.90660022713693</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>27.09102285702562</v>
+        <v>38.97361177371584</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>27.09102281135835</v>
+        <v>5.337976962372601</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>27.09102285531451</v>
+        <v>43.77188934698155</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>27.09102274837868</v>
+        <v>7.823055803207637</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>27.09102277904285</v>
+        <v>17.17759744300199</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>27.09102278897908</v>
+        <v>21.79958826615051</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>27.09102275154705</v>
+        <v>0.4714304754609628</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>27.09102278781611</v>
+        <v>25.91178113420063</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>27.09102279897462</v>
+        <v>27.96643160135191</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>27.09102275591773</v>
+        <v>5.327738215389438</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>27.09102279430615</v>
+        <v>37.90246456741404</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>27.09102280394011</v>
+        <v>40.73347426844224</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>27.09102280660749</v>
+        <v>43.3565171062172</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>27.09102281928231</v>
+        <v>45.34672699446895</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>27.09102282416444</v>
+        <v>50.91434709137081</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>27.09102277664865</v>
+        <v>17.10094033916951</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>27.09102281285217</v>
+        <v>33.49745721673152</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.09102282230208</v>
+        <v>40.96939753523407</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>27.0910228036936</v>
+        <v>8.238183683498253</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>27.09102283991934</v>
+        <v>25.04054154639974</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>27.09102285201247</v>
+        <v>34.25041352642326</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>27.09102280479422</v>
+        <v>1.311012901517998</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>27.09102284490198</v>
+        <v>19.32009052214198</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>27.09102285957368</v>
+        <v>37.1472081392029</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>27.09102281394875</v>
+        <v>1.909496075526118</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>27.09102285780997</v>
+        <v>35.88929069070524</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>27.09102274129263</v>
+        <v>4.208927921736016</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>27.09102277086747</v>
+        <v>11.79742552993408</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>27.09102278094872</v>
+        <v>20.92063753123712</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>27.09102274392955</v>
+        <v>-0.3588145229205182</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>27.091022778824</v>
+        <v>22.97542581021304</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>27.09102278999219</v>
+        <v>29.81221468426353</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>27.0910227476546</v>
+        <v>1.492664340177253</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>27.09102278470926</v>
+        <v>35.95767119988004</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>27.09102279441624</v>
+        <v>39.56418990665585</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>27.09102279676876</v>
+        <v>33.95639663027669</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>27.09102280933453</v>
+        <v>36.54615097007175</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.09102281427859</v>
+        <v>41.20158550265997</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>27.09102276811086</v>
+        <v>13.8668305432718</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>27.09102280310497</v>
+        <v>27.26669809943667</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>27.09102281279595</v>
+        <v>40.64725246438361</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>27.09102279403298</v>
+        <v>5.94621717656641</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>27.09102282898547</v>
+        <v>21.26938546004172</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>27.0910228411907</v>
+        <v>34.51139036524935</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>27.0910227944355</v>
+        <v>2.251128903862259</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>27.09102283296675</v>
+        <v>18.02986131496062</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>27.09102284765324</v>
+        <v>36.14568912235107</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>27.09102280268032</v>
+        <v>0.2115974270917924</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>27.09102284497283</v>
+        <v>29.0901832812046</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>27.09102284707527</v>
+        <v>22.23164652155785</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.09102284368438</v>
+        <v>16.37375185592027</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>27.09102285961245</v>
+        <v>33.94200877643886</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>27.09102286622176</v>
+        <v>40.83016347705168</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>27.0910228095452</v>
+        <v>1.131387450153454</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>27.09102285165686</v>
+        <v>10.64807529676954</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>27.0910228627738</v>
+        <v>20.21501454382305</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>27.09102282642094</v>
+        <v>12.18756950585176</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>27.09102286196653</v>
+        <v>18.32037017442264</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>27.09102287424987</v>
+        <v>28.86461235014533</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.09102282439995</v>
+        <v>-1.002543707128432</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>27.0910228636947</v>
+        <v>4.715507554775627</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>27.09102287780808</v>
+        <v>10.60271846139304</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>27.09102283493054</v>
+        <v>-0.8501561120323302</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>27.09102287789624</v>
+        <v>16.04651324348336</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>27.09102289009559</v>
+        <v>30.90763466845967</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>27.09102288469105</v>
+        <v>18.55927395655171</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>27.09102290046945</v>
+        <v>38.13483871261679</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>27.09102290562944</v>
+        <v>47.76385343985535</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>27.09102284833196</v>
+        <v>2.715114386552635</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>27.09102289074031</v>
+        <v>14.57124667741755</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>27.09102290211263</v>
+        <v>26.88630506691742</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>27.09102286772701</v>
+        <v>59.16135442061998</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>27.09102286362609</v>
+        <v>47.29910803855323</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>27.09102287965611</v>
+        <v>61.96755940211325</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>27.09102288626092</v>
+        <v>68.86237976857393</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>27.0910228271974</v>
+        <v>15.89439894203246</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>27.09102287190811</v>
+        <v>57.14631624507923</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>27.09102288280669</v>
+        <v>62.27331708802895</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>27.09102284359299</v>
+        <v>23.40533932312014</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>27.09102288124368</v>
+        <v>39.04118195984498</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>27.09102289347247</v>
+        <v>44.9554704315718</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>27.0910228435132</v>
+        <v>7.284768953810961</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>27.09102288550637</v>
+        <v>36.65561840712726</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>27.091022899788</v>
+        <v>45.29508820108921</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>27.09102285525422</v>
+        <v>10.49371249585776</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>27.09102290082146</v>
+        <v>59.84231349439266</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>27.09102291300501</v>
+        <v>69.46806804587273</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>27.09102290687747</v>
+        <v>72.98732206566791</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>27.09102292270546</v>
+        <v>81.94761031483191</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>27.09102292784148</v>
+        <v>87.46802879400501</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>27.09102286820821</v>
+        <v>29.70875715902621</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>27.09102291313726</v>
+        <v>75.52945579043802</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>27.09102292418038</v>
+        <v>79.36482372291479</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>27.09102287017856</v>
+        <v>61.1156646798587</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>27.09102286585866</v>
+        <v>35.89423315422432</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>27.09102288168901</v>
+        <v>46.12082965905749</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>27.09102288826563</v>
+        <v>64.98022226815073</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>27.09102282940181</v>
+        <v>7.074859671153849</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>27.09102287412964</v>
+        <v>48.11522036693313</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>27.09102288494151</v>
+        <v>57.41008551909739</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>27.09102284573147</v>
+        <v>13.50605284982316</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>27.09102288334307</v>
+        <v>31.91354014918201</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>27.09102289547112</v>
+        <v>43.06596331283186</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>27.09102284623225</v>
+        <v>2.464804731405685</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>27.0910228882246</v>
+        <v>31.51914173214114</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>27.09102290243058</v>
+        <v>44.42917688233788</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>27.09102285794771</v>
+        <v>4.441690837046295</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>27.09102290344886</v>
+        <v>53.5557285332992</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>27.0910229155404</v>
+        <v>72.92038470468628</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>27.09102290923753</v>
+        <v>64.52242122825575</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>27.09102292485856</v>
+        <v>72.49054469865263</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>27.09102292996947</v>
+        <v>88.29180186446479</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>27.09102287048309</v>
+        <v>16.21820194435949</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>27.09102291546302</v>
+        <v>64.0692376675612</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>27.09102292637773</v>
+        <v>75.26667870633327</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>27.09102285737923</v>
+        <v>54.93166051791047</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>27.09102285305848</v>
+        <v>21.03425926379475</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>27.0910228687006</v>
+        <v>30.07329029023149</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>27.09102287538923</v>
+        <v>46.20285482277711</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>27.09102281803035</v>
+        <v>4.730356406040897</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>27.09102286131687</v>
+        <v>39.08261246578133</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>27.09102287239248</v>
+        <v>51.10794729754574</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>27.0910228351166</v>
+        <v>10.77138726692193</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>27.09102287149823</v>
+        <v>30.88314239285823</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>27.09102288376804</v>
+        <v>45.49466274440369</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>27.09102283511888</v>
+        <v>4.098157290385345</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>27.09102287554309</v>
+        <v>29.92688740427826</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>27.09102288979995</v>
+        <v>46.02717168272384</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>27.09102284589613</v>
+        <v>2.280509949021315</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>27.09102288983967</v>
+        <v>46.76506929495931</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>27.09102290203598</v>
+        <v>69.39619116909986</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>27.09102289576843</v>
+        <v>51.11789819810319</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>27.09102291123565</v>
+        <v>62.58863634301042</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>27.09102291646774</v>
+        <v>83.45363891294168</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>27.09102285830286</v>
+        <v>11.71213571184438</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>27.09102290197057</v>
+        <v>58.75065140378212</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>27.09102291319742</v>
+        <v>74.51347670349304</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>27.09102274340532</v>
+        <v>14.88175617710935</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>27.09102276964231</v>
+        <v>12.36007157553065</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>27.09102277874361</v>
+        <v>20.54663367412294</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>27.09102274383028</v>
+        <v>2.897330185542504</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>27.09102277471059</v>
+        <v>11.24375028633439</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>27.0910227847028</v>
+        <v>12.71054038490467</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>27.0910227470934</v>
+        <v>7.574517158568476</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>27.09102277999102</v>
+        <v>23.50224869058213</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>27.09102278873852</v>
+        <v>24.1828960219144</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>27.09102279122877</v>
+        <v>11.30226191138867</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>27.09102280276683</v>
+        <v>16.54156406635387</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>27.09102280714275</v>
+        <v>18.51276713324234</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>27.09102276612886</v>
+        <v>17.17754747430367</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>27.09102279686523</v>
+        <v>11.98636850803499</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>27.09102280566069</v>
+        <v>22.44594461754903</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>27.09102279051081</v>
+        <v>13.0876472233565</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.09102282162806</v>
+        <v>22.47222468180018</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>27.09102283253922</v>
+        <v>31.85841695899317</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>27.0910227887874</v>
+        <v>2.412812721995838</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>27.09102282297406</v>
+        <v>8.433237091071</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>27.09102283596154</v>
+        <v>12.60731712475471</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>27.09102279625035</v>
+        <v>0.8305848323058029</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>27.09102283389188</v>
+        <v>15.08429104040419</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>27.09102275295811</v>
+        <v>17.27591216474679</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.09102278079101</v>
+        <v>21.47644497443112</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>27.0910227898185</v>
+        <v>21.60348212837775</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>27.09102275502193</v>
+        <v>1.644287650285488</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>27.09102278792857</v>
+        <v>22.33149889854355</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>27.09102279805358</v>
+        <v>22.33641132201297</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>27.09102275901138</v>
+        <v>5.079061363236939</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>27.09102279384257</v>
+        <v>31.99450080495532</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>27.09102280260258</v>
+        <v>30.34393426158541</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>27.09102280514463</v>
+        <v>34.29592831701736</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>27.09102281676343</v>
+        <v>39.81949916640995</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>27.09102282115279</v>
+        <v>40.38543347179045</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>27.09102277798036</v>
+        <v>20.44267164037776</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>27.09102281072354</v>
+        <v>34.52964092315983</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>27.09102281930792</v>
+        <v>37.6135112759919</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>27.09102280377331</v>
+        <v>16.20486986705991</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>27.09102283674903</v>
+        <v>33.2551005204034</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>27.09102284767422</v>
+        <v>39.00925948417297</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.09102280398484</v>
+        <v>5.647247403539417</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>27.09102284051552</v>
+        <v>27.3281197233921</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>27.09102285374427</v>
+        <v>39.35834778302322</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>27.09102281245456</v>
+        <v>7.056953895633569</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>27.09102285236633</v>
+        <v>44.79603329507514</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>27.09102275470939</v>
+        <v>6.48847249597442</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>27.09102278251347</v>
+        <v>14.28392421512073</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.09102279145386</v>
+        <v>18.29737965480082</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>27.09102275727781</v>
+        <v>0.01017125682660236</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>27.09102279016373</v>
+        <v>20.30822341249649</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>27.0910228002182</v>
+        <v>22.68479258631039</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>27.09102276125804</v>
+        <v>4.001938296953668</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>27.0910227960256</v>
+        <v>31.01861661060864</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>27.0910228047157</v>
+        <v>34.20342847392968</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>27.09102280715769</v>
+        <v>36.83527410339504</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>27.09102281864477</v>
+        <v>40.03571595669202</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>27.09102282301311</v>
+        <v>44.58450982094443</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>27.09102277984757</v>
+        <v>9.185911307378714</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>27.09102281265737</v>
+        <v>23.16228752620806</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>27.09102282115371</v>
+        <v>27.62060999752201</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>27.0910228055655</v>
+        <v>8.894545994479873</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>27.09102283847469</v>
+        <v>26.0786720853622</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>27.09102284934266</v>
+        <v>35.628167643553</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>27.09102280633307</v>
+        <v>2.114624307017966</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.09102284282579</v>
+        <v>19.99143423458793</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>27.09102285603086</v>
+        <v>37.62222146572962</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.09102281477323</v>
+        <v>3.474112459331394</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>27.09102285459491</v>
+        <v>36.42858814724227</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>27.09102274834103</v>
+        <v>3.743282641498105</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>27.09102277516195</v>
+        <v>9.781784303965345</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>27.09102278423165</v>
+        <v>17.96296760874866</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>27.09102275042833</v>
+        <v>-0.5456472574456335</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.091022782069</v>
+        <v>17.76193243814252</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>27.09102279213161</v>
+        <v>24.60486576131751</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>27.09102275382789</v>
+        <v>1.203324201468188</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.09102278738927</v>
+        <v>29.8729370748146</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>27.09102279614537</v>
+        <v>33.88591896312781</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>27.09102279830205</v>
+        <v>28.77327071933105</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>27.09102280968917</v>
+        <v>32.54125638844629</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>27.09102281411037</v>
+        <v>36.74173426177295</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>27.09102277216988</v>
+        <v>6.930170353436598</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>27.0910228038872</v>
+        <v>18.43052380164758</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>27.09102281259768</v>
+        <v>27.87757534600017</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>27.09102279684084</v>
+        <v>7.274359544909359</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>27.09102282859968</v>
+        <v>22.81174077378129</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>27.09102283956726</v>
+        <v>36.10925465054278</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>27.09102279697932</v>
+        <v>3.076014151714983</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>27.09102283204231</v>
+        <v>18.61922102536245</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>27.09102284525885</v>
+        <v>36.67223052751268</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>27.09102280459883</v>
+        <v>2.611210386710027</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>27.09102284300038</v>
+        <v>30.58308515369385</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>27.09102284494571</v>
+        <v>25.25841018395671</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.09102284192987</v>
+        <v>19.75931675541072</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>27.09102285633114</v>
+        <v>36.89450766460156</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>27.09102286221229</v>
+        <v>44.13821731440729</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>27.09102281082065</v>
+        <v>2.905431478182951</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>27.09102284904696</v>
+        <v>15.44591263001038</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>27.09102285908456</v>
+        <v>24.49744882179622</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>27.09102282628293</v>
+        <v>12.24829165176354</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>27.09102285857939</v>
+        <v>20.33860213230761</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>27.09102286962386</v>
+        <v>30.43129528134561</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>27.09102282422813</v>
+        <v>-1.552384129129077</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>27.09102285997913</v>
+        <v>4.854529078384019</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>27.09102287268308</v>
+        <v>11.66160927782249</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>27.09102283393344</v>
+        <v>0.3661043909419739</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>27.09102287294922</v>
+        <v>18.20106283588423</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>27.09102288392101</v>
+        <v>31.90344034848361</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>27.09102287908426</v>
+        <v>21.23541298609219</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>27.09102289333346</v>
+        <v>40.75094462594294</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>27.09102289794255</v>
+        <v>48.93797478604343</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>27.09102284598236</v>
+        <v>3.830351723958543</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>27.09102288447766</v>
+        <v>18.28446723561389</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>27.09102289471763</v>
+        <v>28.49792577130157</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>27.09102286353665</v>
+        <v>59.3009311295583</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>27.09102285988461</v>
+        <v>48.29044141741224</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>27.09102287437357</v>
+        <v>62.94681421258576</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>27.09102288025854</v>
+        <v>69.52502148996973</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>27.09102282670503</v>
+        <v>16.32843133168826</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>27.09102286727881</v>
+        <v>58.51611587634115</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>27.09102287712154</v>
+        <v>63.16547029230006</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>27.09102284175074</v>
+        <v>23.04854695332438</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>27.09102287594727</v>
+        <v>40.37528108600208</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>27.09102288694731</v>
+        <v>46.02121625161638</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>27.091022841457</v>
+        <v>7.766393415196681</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>27.09102287965804</v>
+        <v>36.29897191654845</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>27.09102289251249</v>
+        <v>45.42400835876303</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>27.09102285224325</v>
+        <v>12.05097068541301</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>27.09102289360892</v>
+        <v>60.06436323049464</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>27.09102290456809</v>
+        <v>68.36009393938167</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>27.09102289908121</v>
+        <v>71.67183051279369</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>27.0910229133743</v>
+        <v>82.2014084870971</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>27.09102291796683</v>
+        <v>86.00111075097591</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>27.09102286389522</v>
+        <v>29.98243446773731</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>27.09102290466631</v>
+        <v>76.48911133652055</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>27.09102291461022</v>
+        <v>78.79115400247645</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>27.0910228657275</v>
+        <v>60.59992497978615</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>27.0910228618782</v>
+        <v>37.67093893853203</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>27.09102287618644</v>
+        <v>48.69695537627712</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>27.09102288204956</v>
+        <v>65.83275133959265</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>27.09102282867751</v>
+        <v>7.823738722588683</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>27.0910228692633</v>
+        <v>49.87989396275003</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>27.09102287902838</v>
+        <v>58.94208385849236</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>27.09102284366257</v>
+        <v>13.50688889432908</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>27.09102287782152</v>
+        <v>33.12186357681576</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>27.09102288873282</v>
+        <v>44.00748244489241</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>27.09102284389819</v>
+        <v>3.336522618968601</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>27.09102288209721</v>
+        <v>31.55694514457263</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>27.09102289488438</v>
+        <v>44.92457344130723</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>27.09102285465444</v>
+        <v>6.374706551273508</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>27.09102289595693</v>
+        <v>53.80324516377597</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>27.09102290683482</v>
+        <v>71.48371170507752</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>27.09102290118941</v>
+        <v>63.97404419898628</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>27.09102291529616</v>
+        <v>73.95345557872076</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>27.09102291986859</v>
+        <v>86.95054542316859</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>27.09102286593028</v>
+        <v>17.44386821781412</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>27.09102290674634</v>
+        <v>66.20087225191071</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>27.09102291657453</v>
+        <v>75.67764998758398</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>27.0910228541681</v>
+        <v>55.62293207012972</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>27.09102285031384</v>
+        <v>24.25473401413412</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>27.0910228644558</v>
+        <v>34.58663040230225</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>27.09102287041565</v>
+        <v>49.19230394480019</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>27.09102281840397</v>
+        <v>6.179620134593762</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>27.09102285768771</v>
+        <v>41.87286127266091</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>27.09102286768854</v>
+        <v>53.6269793557487</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>27.09102283406355</v>
+        <v>11.63718553400789</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>27.09102286711449</v>
+        <v>32.64189013479279</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>27.09102287815013</v>
+        <v>46.67678003692278</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>27.09102283384974</v>
+        <v>4.873804570717844</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>27.09102287062799</v>
+        <v>30.16466599102219</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>27.09102288345801</v>
+        <v>46.22631707723703</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>27.09102284375942</v>
+        <v>5.142229481220632</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>27.09102288365536</v>
+        <v>48.41208396665147</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>27.09102289462603</v>
+        <v>69.18124916607215</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>27.09102288901115</v>
+        <v>52.7695049811819</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>27.09102290297902</v>
+        <v>65.69201191401852</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>27.09102290765837</v>
+        <v>83.19346568030139</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>27.09102285491163</v>
+        <v>13.47901061635444</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>27.09102289454724</v>
+        <v>61.47249708892913</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>27.09102290465371</v>
+        <v>74.80184458401175</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>27.09102273885989</v>
+        <v>12.58700829200524</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>27.09102276823613</v>
+        <v>19.93384968225894</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>27.0910227781181</v>
+        <v>31.03365623984903</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>27.09102273882313</v>
+        <v>-1.512148225548671</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>27.0910227734227</v>
+        <v>14.77271881861588</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>27.09102278424184</v>
+        <v>18.93564401324608</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>27.0910227429306</v>
+        <v>2.24509766237054</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>27.09102277968572</v>
+        <v>38.3489372390342</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>27.09102278914064</v>
+        <v>41.54226224558653</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>27.09102279126716</v>
+        <v>23.48064443764004</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>27.09102280380922</v>
+        <v>28.03762128966982</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>27.09102280850185</v>
+        <v>30.43562332669767</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>27.09102276281878</v>
+        <v>10.11063171440038</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>27.09102279728054</v>
+        <v>20.11624766925914</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>27.09102280683595</v>
+        <v>34.41595468744818</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>27.09102278861721</v>
+        <v>13.60921241484696</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>27.09102282328691</v>
+        <v>26.22985671971409</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>27.0910228350053</v>
+        <v>32.02750904256929</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>27.09102278620797</v>
+        <v>-0.06639172234092428</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>27.09102282444966</v>
+        <v>10.94237198630154</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>27.09102283837354</v>
+        <v>10.06984824846257</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>27.09102279496649</v>
+        <v>-2.304403378532651</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>27.09102283688796</v>
+        <v>22.43501386404929</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>27.09102274937354</v>
+        <v>20.14101134649879</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>27.0910227805167</v>
+        <v>35.98088144518014</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>27.09102279030972</v>
+        <v>37.528173128063</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>27.09102275112334</v>
+        <v>4.282983198052076</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>27.09102278800398</v>
+        <v>36.37909862047265</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>27.09102279892911</v>
+        <v>37.47677129237921</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>27.09102275598843</v>
+        <v>6.237415832620052</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>27.09102279488008</v>
+        <v>55.11465859597055</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>27.09102280433144</v>
+        <v>54.66531417302828</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>27.09102280649258</v>
+        <v>56.57040617209431</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>27.09102281912679</v>
+        <v>61.36052875764128</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>27.0910228238391</v>
+        <v>61.7260872933166</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>27.09102277577356</v>
+        <v>19.74545430739925</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>27.09102281246306</v>
+        <v>53.42477517160225</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>27.09102282177616</v>
+        <v>59.12460031850872</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>27.09102280311665</v>
+        <v>17.9381201331072</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>27.09102283983562</v>
+        <v>39.35208976464071</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>27.09102285155475</v>
+        <v>40.13167686640687</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>27.09102280281578</v>
+        <v>4.544004038565813</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>27.0910228436799</v>
+        <v>34.1714426287693</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>27.09102285781898</v>
+        <v>38.5013272740365</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>27.09102281264234</v>
+        <v>4.949487768239898</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>27.09102285706376</v>
+        <v>55.19540076921611</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>27.0910227512216</v>
+        <v>8.05122172767614</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>27.09102278232717</v>
+        <v>26.7605709020748</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>27.09102279202862</v>
+        <v>32.55915370302853</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>27.09102275354586</v>
+        <v>2.516767975998953</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>27.09102279040076</v>
+        <v>33.34649435591135</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>27.09102280125047</v>
+        <v>37.3711697508259</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>27.09102275838243</v>
+        <v>6.006862949040496</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>27.09102279719583</v>
+        <v>53.66163241620053</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>27.0910228065716</v>
+        <v>57.94123372886342</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>27.09102280863911</v>
+        <v>60.54290144123843</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>27.09102282112819</v>
+        <v>63.15487047942185</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>27.09102282582407</v>
+        <v>67.39962342196401</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>27.09102277777214</v>
+        <v>7.725921988537717</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>27.09102281452931</v>
+        <v>40.69324139466683</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>27.09102282374544</v>
+        <v>47.82582355995886</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>27.09102280502081</v>
+        <v>11.47497205577495</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>27.0910228416624</v>
+        <v>32.65533188065231</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>27.09102285332118</v>
+        <v>37.44914954254255</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>27.09102280534436</v>
+        <v>2.879279816242587</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>27.09102284616464</v>
+        <v>28.34807377025782</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>27.09102286027611</v>
+        <v>38.3779105695855</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>27.09102281512186</v>
+        <v>3.796981183013372</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>27.0910228594375</v>
+        <v>48.24084206380482</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>27.0910227441351</v>
+        <v>4.343142904623129</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>27.09102277414523</v>
+        <v>20.20871609196059</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>27.09102278400223</v>
+        <v>32.41599066088543</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>27.09102274595824</v>
+        <v>0.2013321777190207</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>27.09102278140205</v>
+        <v>26.42425743893145</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>27.09102279229517</v>
+        <v>38.92071125112395</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>27.09102275016987</v>
+        <v>0.9472895648513209</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>27.09102278764237</v>
+        <v>49.60218300592239</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>27.09102279710485</v>
+        <v>56.58840833524982</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>27.09102279890037</v>
+        <v>49.43749900197516</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>27.09102281126204</v>
+        <v>54.06848146609804</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>27.09102281602486</v>
+        <v>60.14210405236803</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>27.09102276932594</v>
+        <v>3.623737145151519</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>27.09102280486469</v>
+        <v>32.96602593660064</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>27.09102281432205</v>
+        <v>48.34581349174191</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>27.09102279536815</v>
+        <v>6.797022977760648</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>27.09102283074091</v>
+        <v>25.14136992740907</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>27.09102284252106</v>
+        <v>35.6053750230772</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>27.09102279502659</v>
+        <v>0.1046323711272947</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>27.09102283424476</v>
+        <v>20.73423241803723</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>27.09102284839695</v>
+        <v>34.81196656666708</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>27.09102280391538</v>
+        <v>-1.370303494057545</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>27.09102284666601</v>
+        <v>36.33123534341482</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>27.09102284874887</v>
+        <v>27.86135123424094</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>27.09102284516771</v>
+        <v>22.59873828265827</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>27.09102286074368</v>
+        <v>37.26823965069131</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>27.09102286708405</v>
+        <v>39.61076479021818</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>27.09102281034967</v>
+        <v>3.13608941801807</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>27.09102285274204</v>
+        <v>14.97441704809183</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>27.09102286376098</v>
+        <v>25.57488432136228</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>27.09102282813411</v>
+        <v>11.36754303412662</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>27.09102286412051</v>
+        <v>20.9407870291649</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>27.09102287603089</v>
+        <v>32.1087929863153</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.09102282540405</v>
+        <v>-3.280088979144978</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>27.09102286537754</v>
+        <v>8.232105207283286</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>27.09102287904876</v>
+        <v>13.53405198001687</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>27.0910228366426</v>
+        <v>-2.227596134413552</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>27.09102288008694</v>
+        <v>23.17390636037618</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>27.09102289189878</v>
+        <v>39.88395237370816</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.09102288626923</v>
+        <v>25.7549032226794</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>27.09102290172261</v>
+        <v>44.00514997185073</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>27.09102290669235</v>
+        <v>53.45088833228282</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>27.09102284918963</v>
+        <v>1.798643014671114</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>27.09102289201108</v>
+        <v>19.81190878517469</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>27.09102290318557</v>
+        <v>34.32551754855346</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>27.09102286902851</v>
+        <v>63.41583478754529</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>27.09102286476824</v>
+        <v>54.89960180807049</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>27.09102288043795</v>
+        <v>66.4761793180876</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>27.09102288678484</v>
+        <v>66.78483364011394</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>27.09102282767475</v>
+        <v>15.69903805554423</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>27.09102287265274</v>
+        <v>60.49119387259788</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>27.091022883439</v>
+        <v>64.72521040100399</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>27.09102284505026</v>
+        <v>21.08219303170119</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>27.0910228831337</v>
+        <v>41.12141834380913</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>27.09102289497704</v>
+        <v>45.10859543934894</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>27.09102284423914</v>
+        <v>5.194930341088451</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>27.09102288695576</v>
+        <v>42.25936796627942</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>27.09102290074157</v>
+        <v>46.25927697113516</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>27.09102285662243</v>
+        <v>7.397361491884958</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>27.0910229026536</v>
+        <v>65.35319329496323</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>27.09102291442708</v>
+        <v>72.59638307397563</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>27.09102290809908</v>
+        <v>77.27674335389891</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>27.09102292360689</v>
+        <v>85.86014808395763</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>27.09102292855823</v>
+        <v>90.21971485377483</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>27.09102286872628</v>
+        <v>23.86071479710854</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>27.09102291406649</v>
+        <v>78.80177416838004</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>27.09102292489458</v>
+        <v>81.5694916873336</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>27.09102287135982</v>
+        <v>66.15792607963974</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>27.09102286689641</v>
+        <v>47.5378675796191</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>27.09102288236758</v>
+        <v>55.53133436729894</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>27.09102288869483</v>
+        <v>66.0445567923593</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>27.0910228297864</v>
+        <v>8.417690785779538</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>27.09102287477151</v>
+        <v>53.4990418312612</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>27.09102288547034</v>
+        <v>61.49778948852836</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>27.09102284707907</v>
+        <v>11.6808467250078</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>27.0910228851154</v>
+        <v>33.5344991304939</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>27.09102289686301</v>
+        <v>42.99972161904358</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>27.09102284686235</v>
+        <v>1.281536632645853</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>27.09102288957405</v>
+        <v>37.52288577423363</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>27.09102290328413</v>
+        <v>45.87446572695868</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>27.09102285919466</v>
+        <v>3.03785200624921</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>27.0910229051483</v>
+        <v>59.41012533444363</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>27.0910229168316</v>
+        <v>75.95080633921715</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>27.0910229103435</v>
+        <v>70.99786036695842</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>27.0910229256489</v>
+        <v>79.15334514513728</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>27.0910229305813</v>
+        <v>92.98150314904902</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>27.09102287090012</v>
+        <v>11.67613927619485</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>27.09102291628608</v>
+        <v>69.2352448371792</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>27.09102292698351</v>
+        <v>78.64973164116594</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>27.09102285863832</v>
+        <v>57.18367093589126</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>27.09102285417263</v>
+        <v>26.97019534355123</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>27.09102286945501</v>
+        <v>36.30453593637534</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>27.09102287589443</v>
+        <v>45.78067351037029</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>27.09102281847441</v>
+        <v>2.966314359759004</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>27.09102286201655</v>
+        <v>39.15791086368039</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>27.09102287298947</v>
+        <v>54.10402577994955</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>27.09102283645491</v>
+        <v>7.36118082952391</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>27.09102287326424</v>
+        <v>29.63845367767665</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>27.0910228851631</v>
+        <v>44.67988249441816</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>27.09102283577287</v>
+        <v>-0.09054594289239759</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>27.09102287688449</v>
+        <v>31.07451343235228</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>27.09102289067469</v>
+        <v>45.77085296154529</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>27.09102284718966</v>
+        <v>-1.293627365860267</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>27.09102289159009</v>
+        <v>49.36102069920936</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>27.09102290338828</v>
+        <v>71.91295932918769</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>27.09102289694816</v>
+        <v>55.45061350905646</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>27.09102291208913</v>
+        <v>67.90267028664707</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>27.09102291714458</v>
+        <v>86.98162041652586</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>27.09102285878016</v>
+        <v>5.525142858719995</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>27.09102290285408</v>
+        <v>60.18720279752316</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>27.09102291386713</v>
+        <v>78.17493811016286</v>
       </c>
     </row>
   </sheetData>
